--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED48BFA2-FB0E-684B-BE35-F6E2FA357990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3232794-EE73-364F-8BD9-89B33F884776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1580" yWindow="1920" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易紀錄" sheetId="1" r:id="rId1"/>
@@ -639,16 +639,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+      <selection activeCell="I253" sqref="I253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -699,7 +700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>43774</v>
       </c>
@@ -735,7 +736,7 @@
         <v>78.374999999999986</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>43774</v>
       </c>
@@ -771,7 +772,7 @@
         <v>220.16249999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>43905</v>
       </c>
@@ -807,7 +808,7 @@
         <v>199.49999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>43994</v>
       </c>
@@ -848,7 +849,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>44020</v>
       </c>
@@ -884,7 +885,7 @@
         <v>247.66499999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>44040</v>
       </c>
@@ -920,7 +921,7 @@
         <v>330.59999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>44056</v>
       </c>
@@ -956,7 +957,7 @@
         <v>304.23749999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>44070</v>
       </c>
@@ -997,7 +998,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>44075</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>309.58124999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>44090</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>1378.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>44091</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>319.2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>44165</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>346.27499999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>44181</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>504.44999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>44183</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>499.46249999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>44188</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>1060.8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>44188</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>44196</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>532.23749999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>44201</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>44202</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>577.12499999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>44204</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>413.24999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>44208</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>421.79999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>44209</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>44209</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>44209</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>44210</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>424.65</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>44211</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>282.86249999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>44217</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>454.57499999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>44224</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>44260</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>44260</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>60.847499999999989</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>44286</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>44286</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>839.32499999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>44286</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>419.66249999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>44292</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>182.75624999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>44292</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>56.572499999999991</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>44293</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44294</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>820.5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>44294</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>244.5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>44295</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>102.24374999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>44295</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>102.24374999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>44295</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>102.24374999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>44298</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>61.41749999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>44299</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>439.5</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>44300</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>59.992499999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>44300</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>49.233749999999993</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>44301</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>44306</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>49.304999999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>44306</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>32.276249999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>44329</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>44329</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>44329</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>81.224999999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>44329</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>81.937499999999986</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>44329</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>391.87499999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>44329</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>349.5</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>44329</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>209.1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>44330</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>457.2</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>44333</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>44334</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>398.28749999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>44334</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>398.28749999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>44337</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>75.524999999999991</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>44337</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>44399</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>44399</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>589.5</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>44406</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>411.82499999999993</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>44407</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>194.65499999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>44407</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>27.431249999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>44407</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>54.577499999999993</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>44412</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>76.949999999999989</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>44412</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>76.593749999999986</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>44412</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>44412</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>52.938749999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>44412</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>79.728749999999977</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>44412</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>44412</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>76.949999999999989</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>44412</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>76.593749999999986</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>44412</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>76.949999999999989</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>44412</v>
       </c>
@@ -4484,7 +4485,7 @@
         <v>76.949999999999989</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>44412</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>26.576249999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <v>44412</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>76.949999999999989</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <v>44412</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>229.78124999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>44412</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>26.576249999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>44454</v>
       </c>
@@ -4669,7 +4670,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>44454</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>255.9</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>44462</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>352.5</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>44462</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>355.5</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>44462</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>1075.5</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>44462</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>133.35</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>44462</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>44462</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>44466</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>44466</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>44473</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>406.83749999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>44481</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>44484</v>
       </c>
@@ -5151,7 +5152,7 @@
         <v>388.31249999999994</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>44490</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>123.11999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>44495</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>44529</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>560.70000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>44529</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>44530</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>161.38124999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>44530</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>136.79999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>44532</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>240.46874999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>44533</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>279.65624999999994</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <v>44553</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>150.9</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>44554</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>35.197499999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>44557</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
         <v>44566</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>212.68124999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>44567</v>
       </c>
@@ -5644,7 +5645,7 @@
         <v>105.02249999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11">
         <v>44568</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>89.774999999999991</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11">
         <v>44586</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>100.81874999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11">
         <v>44587</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>455.28749999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="11">
         <v>44587</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>100.99687499999999</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11">
         <v>44624</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11">
         <v>44638</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>388.5</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11">
         <v>44644</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>421.08749999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>44650</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>426.07499999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>44652</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>416.81249999999994</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11">
         <v>44658</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>406.83749999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>44753</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>160.31249999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
         <v>44753</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>160.16999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>44812</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>160.88249999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="11">
         <v>44838</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>44848</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>294.26249999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>44848</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>72.674999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>44883</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11">
         <v>44897</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>130.52999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="11">
         <v>44900</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>341.99999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="11">
         <v>44902</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>350.54999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>44902</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>76.949999999999989</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>45009</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>1567.5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>45117</v>
       </c>
@@ -6497,7 +6498,7 @@
         <v>273.27937499999996</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>45120</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>1196.6400000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11">
         <v>45139</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>276.69937499999992</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="11">
         <v>45148</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>394.01249999999993</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
         <v>45154</v>
       </c>
@@ -6646,7 +6647,7 @@
         <v>384.74999999999994</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11">
         <v>45160</v>
       </c>
@@ -6682,7 +6683,7 @@
         <v>176.41499999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>45232</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>88.35</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>45263</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>132.92399999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>45294</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>628.80000000000007</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>45310</v>
       </c>
@@ -6831,7 +6832,7 @@
         <v>298.67999999999995</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>45344</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>492.33749999999992</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>45362</v>
       </c>
@@ -6908,7 +6909,7 @@
         <v>1591.2</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="11">
         <v>45363</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>547.91249999999991</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11">
         <v>45389</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>28.001249999999995</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11">
         <v>45389</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>118.91624999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11">
         <v>45389</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>122.79937499999998</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11">
         <v>45389</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>105.84187499999999</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11">
         <v>45397</v>
       </c>
@@ -7129,7 +7130,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11">
         <v>45397</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>14490</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11">
         <v>45401</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>1075.8749999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11">
         <v>45405</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>537.93749999999989</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11">
         <v>45411</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>562.87499999999989</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>45412</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>1139.9999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11">
         <v>45414</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>555.74999999999989</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="11">
         <v>45418</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="11">
         <v>45475</v>
       </c>
@@ -7420,7 +7421,7 @@
       </c>
       <c r="K179" s="10"/>
     </row>
-    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11">
         <v>45475</v>
       </c>
@@ -7454,7 +7455,7 @@
       </c>
       <c r="K180" s="10"/>
     </row>
-    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11">
         <v>45475</v>
       </c>
@@ -7488,7 +7489,7 @@
       </c>
       <c r="K181" s="10"/>
     </row>
-    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11">
         <v>45475</v>
       </c>
@@ -7522,7 +7523,7 @@
       </c>
       <c r="K182" s="10"/>
     </row>
-    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11">
         <v>45475</v>
       </c>
@@ -7556,7 +7557,7 @@
       </c>
       <c r="K183" s="10"/>
     </row>
-    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11">
         <v>45476</v>
       </c>
@@ -7590,7 +7591,7 @@
       </c>
       <c r="K184" s="10"/>
     </row>
-    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11">
         <v>45476</v>
       </c>
@@ -7631,7 +7632,7 @@
         <v>406.5</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11">
         <v>45476</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>569.1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="11">
         <v>45476</v>
       </c>
@@ -7706,7 +7707,7 @@
       </c>
       <c r="K187" s="10"/>
     </row>
-    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11">
         <v>45476</v>
       </c>
@@ -7740,7 +7741,7 @@
       </c>
       <c r="K188" s="10"/>
     </row>
-    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11">
         <v>45488</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>24720</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="11">
         <v>45489</v>
       </c>
@@ -7817,7 +7818,7 @@
         <v>6098.9999999999991</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11">
         <v>45489</v>
       </c>
@@ -7851,7 +7852,7 @@
       </c>
       <c r="K191" s="10"/>
     </row>
-    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11">
         <v>45489</v>
       </c>
@@ -7885,7 +7886,7 @@
       </c>
       <c r="K192" s="10"/>
     </row>
-    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="11">
         <v>45489</v>
       </c>
@@ -7919,7 +7920,7 @@
       </c>
       <c r="K193" s="10"/>
     </row>
-    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="11">
         <v>45490</v>
       </c>
@@ -7953,7 +7954,7 @@
       </c>
       <c r="K194" s="10"/>
     </row>
-    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11">
         <v>45490</v>
       </c>
@@ -7987,7 +7988,7 @@
       </c>
       <c r="K195" s="10"/>
     </row>
-    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11">
         <v>45490</v>
       </c>
@@ -8021,7 +8022,7 @@
       </c>
       <c r="K196" s="10"/>
     </row>
-    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11">
         <v>45490</v>
       </c>
@@ -8055,7 +8056,7 @@
       </c>
       <c r="K197" s="10"/>
     </row>
-    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11">
         <v>45492</v>
       </c>
@@ -8089,7 +8090,7 @@
       </c>
       <c r="K198" s="10"/>
     </row>
-    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11">
         <v>45492</v>
       </c>
@@ -8123,7 +8124,7 @@
       </c>
       <c r="K199" s="10"/>
     </row>
-    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11">
         <v>45492</v>
       </c>
@@ -8157,7 +8158,7 @@
       </c>
       <c r="K200" s="10"/>
     </row>
-    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11">
         <v>45506</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>534.29999999999995</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11">
         <v>45506</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>647.66249999999991</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11">
         <v>45506</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>488.55</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11">
         <v>45506</v>
       </c>
@@ -8316,7 +8317,7 @@
         <v>543.75</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11">
         <v>45506</v>
       </c>
@@ -8357,7 +8358,7 @@
         <v>137.85</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11">
         <v>45509</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>117.27749999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="11">
         <v>45510</v>
       </c>
@@ -8427,7 +8428,7 @@
       </c>
       <c r="K207" s="10"/>
     </row>
-    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="11">
         <v>45510</v>
       </c>
@@ -8461,7 +8462,7 @@
       </c>
       <c r="K208" s="10"/>
     </row>
-    <row r="209" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="11">
         <v>45511</v>
       </c>
@@ -8495,7 +8496,7 @@
       </c>
       <c r="K209" s="10"/>
     </row>
-    <row r="210" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="11">
         <v>45511</v>
       </c>
@@ -8529,7 +8530,7 @@
       </c>
       <c r="K210" s="10"/>
     </row>
-    <row r="211" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="11">
         <v>45511</v>
       </c>
@@ -8563,7 +8564,7 @@
       </c>
       <c r="K211" s="10"/>
     </row>
-    <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="11">
         <v>45533</v>
       </c>
@@ -8597,7 +8598,7 @@
       </c>
       <c r="K212" s="10"/>
     </row>
-    <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="11">
         <v>45533</v>
       </c>
@@ -8631,7 +8632,7 @@
       </c>
       <c r="K213" s="10"/>
     </row>
-    <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="11">
         <v>45533</v>
       </c>
@@ -8665,7 +8666,7 @@
       </c>
       <c r="K214" s="10"/>
     </row>
-    <row r="215" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="11">
         <v>45533</v>
       </c>
@@ -8699,7 +8700,7 @@
       </c>
       <c r="K215" s="10"/>
     </row>
-    <row r="216" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="11">
         <v>45546</v>
       </c>
@@ -8733,7 +8734,7 @@
       </c>
       <c r="K216" s="10"/>
     </row>
-    <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="11">
         <v>45546</v>
       </c>
@@ -8767,7 +8768,7 @@
       </c>
       <c r="K217" s="10"/>
     </row>
-    <row r="218" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="11">
         <v>45559</v>
       </c>
@@ -8801,7 +8802,7 @@
       </c>
       <c r="K218" s="10"/>
     </row>
-    <row r="219" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="11">
         <v>45581</v>
       </c>
@@ -8835,7 +8836,7 @@
       </c>
       <c r="K219" s="10"/>
     </row>
-    <row r="220" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="11">
         <v>45607</v>
       </c>
@@ -8869,7 +8870,7 @@
       </c>
       <c r="K220" s="10"/>
     </row>
-    <row r="221" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="11">
         <v>45607</v>
       </c>
@@ -8903,7 +8904,7 @@
       </c>
       <c r="K221" s="10"/>
     </row>
-    <row r="222" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="11">
         <v>45614</v>
       </c>
@@ -8937,7 +8938,7 @@
       </c>
       <c r="K222" s="10"/>
     </row>
-    <row r="223" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="11">
         <v>45614</v>
       </c>
@@ -8971,7 +8972,7 @@
       </c>
       <c r="K223" s="10"/>
     </row>
-    <row r="224" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="11">
         <v>45614</v>
       </c>
@@ -9005,7 +9006,7 @@
       </c>
       <c r="K224" s="10"/>
     </row>
-    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="11">
         <v>45614</v>
       </c>
@@ -9039,7 +9040,7 @@
       </c>
       <c r="K225" s="10"/>
     </row>
-    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="11">
         <v>45645</v>
       </c>
@@ -9080,7 +9081,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="11">
         <v>45645</v>
       </c>
@@ -9114,7 +9115,7 @@
       </c>
       <c r="K227" s="10"/>
     </row>
-    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="11">
         <v>45645</v>
       </c>
@@ -9148,7 +9149,7 @@
       </c>
       <c r="K228" s="10"/>
     </row>
-    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="11">
         <v>45649</v>
       </c>
@@ -9182,7 +9183,7 @@
       </c>
       <c r="K229" s="10"/>
     </row>
-    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="11">
         <v>45649</v>
       </c>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="K230" s="10"/>
     </row>
-    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="11">
         <v>45649</v>
       </c>
@@ -9250,7 +9251,7 @@
       </c>
       <c r="K231" s="10"/>
     </row>
-    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="11">
         <v>45649</v>
       </c>
@@ -9284,7 +9285,7 @@
       </c>
       <c r="K232" s="10"/>
     </row>
-    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="11">
         <v>45691</v>
       </c>
@@ -9318,7 +9319,7 @@
       </c>
       <c r="K233" s="10"/>
     </row>
-    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="11">
         <v>45691</v>
       </c>
@@ -9352,7 +9353,7 @@
       </c>
       <c r="K234" s="10"/>
     </row>
-    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="11">
         <v>45691</v>
       </c>
@@ -9386,7 +9387,7 @@
       </c>
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11">
         <v>45719</v>
       </c>
@@ -9420,7 +9421,7 @@
       </c>
       <c r="K236" s="10"/>
     </row>
-    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11">
         <v>45720</v>
       </c>
@@ -9454,7 +9455,7 @@
       </c>
       <c r="K237" s="10"/>
     </row>
-    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11">
         <v>45726</v>
       </c>
@@ -9488,7 +9489,7 @@
       </c>
       <c r="K238" s="10"/>
     </row>
-    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11">
         <v>45726</v>
       </c>
@@ -9522,7 +9523,7 @@
       </c>
       <c r="K239" s="10"/>
     </row>
-    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11">
         <v>45726</v>
       </c>
@@ -9556,7 +9557,7 @@
       </c>
       <c r="K240" s="10"/>
     </row>
-    <row r="241" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="11">
         <v>45728</v>
       </c>
@@ -9590,7 +9591,7 @@
       </c>
       <c r="K241" s="10"/>
     </row>
-    <row r="242" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="11">
         <v>45727</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="11">
         <v>45728</v>
       </c>
@@ -9665,7 +9666,7 @@
       </c>
       <c r="K243" s="10"/>
     </row>
-    <row r="244" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="11">
         <v>45747</v>
       </c>
@@ -9701,7 +9702,7 @@
         <v>648.37499999999989</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="11">
         <v>45755</v>
       </c>
@@ -9737,7 +9738,7 @@
         <v>577.12499999999989</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="11">
         <v>45758</v>
       </c>
@@ -12152,7 +12153,17 @@
       <c r="H1005" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L246" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L246" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="2002"/>
+        <filter val="2338"/>
+        <filter val="4938"/>
+        <filter val="6278"/>
+        <filter val="6414"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D89" r:id="rId1" display="6770.TW" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3232794-EE73-364F-8BD9-89B33F884776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D8ED24-42A9-D342-BD9F-820D2741942A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1580" yWindow="1920" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易紀錄" sheetId="1" r:id="rId1"/>
@@ -639,11 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I253" sqref="I253"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L177" sqref="L177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -700,7 +699,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>43774</v>
       </c>
@@ -735,8 +734,11 @@
         <f>H2*J2*公式計算用參數!$B$1</f>
         <v>78.374999999999986</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>43774</v>
       </c>
@@ -771,8 +773,11 @@
         <f>H3*J3*公式計算用參數!$B$1</f>
         <v>220.16249999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>43905</v>
       </c>
@@ -807,8 +812,11 @@
         <f>H4*J4*公式計算用參數!$B$1</f>
         <v>199.49999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>43994</v>
       </c>
@@ -849,7 +857,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>44020</v>
       </c>
@@ -884,8 +892,11 @@
         <f>H6*J6*公式計算用參數!$B$1</f>
         <v>247.66499999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>44040</v>
       </c>
@@ -920,8 +931,11 @@
         <f>H7*J7*公式計算用參數!$B$1</f>
         <v>330.59999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>44056</v>
       </c>
@@ -956,8 +970,11 @@
         <f>H8*J8*公式計算用參數!$B$1</f>
         <v>304.23749999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>44070</v>
       </c>
@@ -998,7 +1015,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>44075</v>
       </c>
@@ -1033,8 +1050,11 @@
         <f>H10*J10*公式計算用參數!$B$1</f>
         <v>309.58124999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>44090</v>
       </c>
@@ -1075,7 +1095,7 @@
         <v>1378.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>44091</v>
       </c>
@@ -1110,8 +1130,11 @@
         <f>H12*J12*公式計算用參數!$B$1</f>
         <v>319.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>44165</v>
       </c>
@@ -1146,8 +1169,11 @@
         <f>H13*J13*公式計算用參數!$B$1</f>
         <v>346.27499999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>44181</v>
       </c>
@@ -1182,8 +1208,11 @@
         <f>H14*J14*公式計算用參數!$B$1</f>
         <v>504.44999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>44183</v>
       </c>
@@ -1218,8 +1247,11 @@
         <f>H15*J15*公式計算用參數!$B$1</f>
         <v>499.46249999999992</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>44188</v>
       </c>
@@ -1260,7 +1292,7 @@
         <v>1060.8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>44188</v>
       </c>
@@ -1301,7 +1333,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>44196</v>
       </c>
@@ -1336,8 +1368,11 @@
         <f>H18*J18*公式計算用參數!$B$1</f>
         <v>532.23749999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>44201</v>
       </c>
@@ -1378,7 +1413,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>44202</v>
       </c>
@@ -1413,8 +1448,11 @@
         <f>H20*J20*公式計算用參數!$B$1</f>
         <v>577.12499999999989</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>44204</v>
       </c>
@@ -1449,8 +1487,11 @@
         <f>H21*J21*公式計算用參數!$B$1</f>
         <v>413.24999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>44208</v>
       </c>
@@ -1485,8 +1526,11 @@
         <f>H22*J22*公式計算用參數!$B$1</f>
         <v>421.79999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>44209</v>
       </c>
@@ -1527,7 +1571,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>44209</v>
       </c>
@@ -1568,7 +1612,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>44209</v>
       </c>
@@ -1609,7 +1653,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>44210</v>
       </c>
@@ -1644,8 +1688,11 @@
         <f>H26*J26*公式計算用參數!$B$1</f>
         <v>424.65</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>44211</v>
       </c>
@@ -1680,6 +1727,9 @@
         <f>H27*J27*公式計算用參數!$B$1</f>
         <v>454.57499999999993</v>
       </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
@@ -1716,6 +1766,9 @@
         <f>H28*J28*公式計算用參數!$B$1</f>
         <v>191.66249999999997</v>
       </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
@@ -1752,8 +1805,11 @@
         <f>H29*J29*公式計算用參數!$B$1</f>
         <v>282.86249999999995</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>44217</v>
       </c>
@@ -1788,8 +1844,11 @@
         <f>H30*J30*公式計算用參數!$B$1</f>
         <v>454.57499999999993</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>44224</v>
       </c>
@@ -1824,6 +1883,9 @@
         <f>H31*J31*公式計算用參數!$B$1</f>
         <v>431.06249999999994</v>
       </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
@@ -1948,7 +2010,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>44260</v>
       </c>
@@ -1983,6 +2045,9 @@
         <f>H35*J35*公式計算用參數!$B$1</f>
         <v>420.37499999999994</v>
       </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
@@ -2019,8 +2084,11 @@
         <f>H36*J36*公式計算用參數!$B$1</f>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>44260</v>
       </c>
@@ -2055,8 +2123,11 @@
         <f>H37*J37*公式計算用參數!$B$1</f>
         <v>60.847499999999989</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>44286</v>
       </c>
@@ -2097,7 +2168,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>44286</v>
       </c>
@@ -2132,8 +2203,11 @@
         <f>H39*J39*公式計算用參數!$B$1</f>
         <v>839.32499999999993</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>44286</v>
       </c>
@@ -2168,8 +2242,11 @@
         <f>H40*J40*公式計算用參數!$B$1</f>
         <v>419.66249999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>44292</v>
       </c>
@@ -2204,8 +2281,11 @@
         <f>H41*J41*公式計算用參數!$B$1</f>
         <v>182.75624999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>44292</v>
       </c>
@@ -2240,6 +2320,9 @@
         <f>H42*J42*公式計算用參數!$B$1</f>
         <v>181.68749999999997</v>
       </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
@@ -2276,8 +2359,11 @@
         <f>H43*J43*公式計算用參數!$B$1</f>
         <v>56.572499999999991</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>44293</v>
       </c>
@@ -2318,7 +2404,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44294</v>
       </c>
@@ -2359,7 +2445,7 @@
         <v>820.5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>44294</v>
       </c>
@@ -2394,6 +2480,9 @@
         <f>H46*J46*公式計算用參數!$B$1</f>
         <v>433.91249999999997</v>
       </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
@@ -2436,7 +2525,7 @@
         <v>244.5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>44295</v>
       </c>
@@ -2471,8 +2560,11 @@
         <f>H48*J48*公式計算用參數!$B$1</f>
         <v>102.24374999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>44295</v>
       </c>
@@ -2507,8 +2599,11 @@
         <f>H49*J49*公式計算用參數!$B$1</f>
         <v>102.24374999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>44295</v>
       </c>
@@ -2543,8 +2638,11 @@
         <f>H50*J50*公式計算用參數!$B$1</f>
         <v>102.24374999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>44298</v>
       </c>
@@ -2661,6 +2759,9 @@
         <f>H53*J53*公式計算用參數!$B$1</f>
         <v>61.274999999999991</v>
       </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
@@ -2738,8 +2839,11 @@
         <f>H55*J55*公式計算用參數!$B$1</f>
         <v>61.41749999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>44299</v>
       </c>
@@ -2780,7 +2884,7 @@
         <v>439.5</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>44300</v>
       </c>
@@ -2815,6 +2919,9 @@
         <f>H57*J57*公式計算用參數!$B$1</f>
         <v>49.233749999999993</v>
       </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
@@ -2851,8 +2958,11 @@
         <f>H58*J58*公式計算用參數!$B$1</f>
         <v>59.992499999999993</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>44300</v>
       </c>
@@ -2887,8 +2997,11 @@
         <f>H59*J59*公式計算用參數!$B$1</f>
         <v>49.233749999999993</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>44301</v>
       </c>
@@ -2970,7 +3083,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>44306</v>
       </c>
@@ -3005,8 +3118,11 @@
         <f>H62*J62*公式計算用參數!$B$1</f>
         <v>49.304999999999993</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>44306</v>
       </c>
@@ -3041,6 +3157,9 @@
         <f>H63*J63*公式計算用參數!$B$1</f>
         <v>49.091249999999995</v>
       </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
@@ -3118,6 +3237,9 @@
         <f>H65*J65*公式計算用參數!$B$1</f>
         <v>32.418749999999996</v>
       </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
@@ -3154,6 +3276,9 @@
         <f>H66*J66*公式計算用參數!$B$1</f>
         <v>32.489999999999995</v>
       </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
@@ -3272,6 +3397,9 @@
         <f>H69*J69*公式計算用參數!$B$1</f>
         <v>32.774999999999999</v>
       </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
@@ -3308,6 +3436,9 @@
         <f>H70*J70*公式計算用參數!$B$1</f>
         <v>32.632499999999993</v>
       </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
@@ -3344,8 +3475,11 @@
         <f>H71*J71*公式計算用參數!$B$1</f>
         <v>32.276249999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>44329</v>
       </c>
@@ -3386,7 +3520,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>44329</v>
       </c>
@@ -3427,7 +3561,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>44329</v>
       </c>
@@ -3462,8 +3596,11 @@
         <f>H74*J74*公式計算用參數!$B$1</f>
         <v>81.224999999999994</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>44329</v>
       </c>
@@ -3498,8 +3635,11 @@
         <f>H75*J75*公式計算用參數!$B$1</f>
         <v>81.937499999999986</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>44329</v>
       </c>
@@ -3534,8 +3674,11 @@
         <f>H76*J76*公式計算用參數!$B$1</f>
         <v>391.87499999999994</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>44329</v>
       </c>
@@ -3576,7 +3719,7 @@
         <v>349.5</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>44329</v>
       </c>
@@ -3658,7 +3801,7 @@
         <v>209.1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>44330</v>
       </c>
@@ -3699,7 +3842,7 @@
         <v>457.2</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>44333</v>
       </c>
@@ -3740,7 +3883,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>44334</v>
       </c>
@@ -3775,8 +3918,11 @@
         <f>H82*J82*公式計算用參數!$B$1</f>
         <v>398.28749999999997</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>44334</v>
       </c>
@@ -3811,8 +3957,11 @@
         <f>H83*J83*公式計算用參數!$B$1</f>
         <v>398.28749999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>44337</v>
       </c>
@@ -3847,8 +3996,11 @@
         <f>H84*J84*公式計算用參數!$B$1</f>
         <v>75.524999999999991</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>44337</v>
       </c>
@@ -3889,7 +4041,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>44399</v>
       </c>
@@ -3930,7 +4082,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>44399</v>
       </c>
@@ -3971,7 +4123,7 @@
         <v>589.5</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>44406</v>
       </c>
@@ -4006,8 +4158,11 @@
         <f>H88*J88*公式計算用參數!$B$1</f>
         <v>411.82499999999993</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>44407</v>
       </c>
@@ -4042,8 +4197,11 @@
         <f>H89*J89*公式計算用參數!$B$1</f>
         <v>194.65499999999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>44407</v>
       </c>
@@ -4078,8 +4236,11 @@
         <f>H90*J90*公式計算用參數!$B$1</f>
         <v>27.431249999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>44407</v>
       </c>
@@ -4114,8 +4275,11 @@
         <f>H91*J91*公式計算用參數!$B$1</f>
         <v>54.577499999999993</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>44412</v>
       </c>
@@ -4150,8 +4314,11 @@
         <f>H92*J92*公式計算用參數!$B$1</f>
         <v>76.949999999999989</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>44412</v>
       </c>
@@ -4186,8 +4353,11 @@
         <f>H93*J93*公式計算用參數!$B$1</f>
         <v>76.593749999999986</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>44412</v>
       </c>
@@ -4228,7 +4398,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>44412</v>
       </c>
@@ -4263,8 +4433,11 @@
         <f>H95*J95*公式計算用參數!$B$1</f>
         <v>52.938749999999992</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>44412</v>
       </c>
@@ -4299,8 +4472,11 @@
         <f>H96*J96*公式計算用參數!$B$1</f>
         <v>79.728749999999977</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>44412</v>
       </c>
@@ -4341,7 +4517,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>44412</v>
       </c>
@@ -4376,8 +4552,11 @@
         <f>H98*J98*公式計算用參數!$B$1</f>
         <v>76.949999999999989</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>44412</v>
       </c>
@@ -4412,8 +4591,11 @@
         <f>H99*J99*公式計算用參數!$B$1</f>
         <v>76.593749999999986</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>44412</v>
       </c>
@@ -4448,8 +4630,11 @@
         <f>H100*J100*公式計算用參數!$B$1</f>
         <v>76.949999999999989</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>44412</v>
       </c>
@@ -4484,8 +4669,11 @@
         <f>H101*J101*公式計算用參數!$B$1</f>
         <v>76.949999999999989</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>44412</v>
       </c>
@@ -4520,8 +4708,11 @@
         <f>H102*J102*公式計算用參數!$B$1</f>
         <v>26.576249999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <v>44412</v>
       </c>
@@ -4556,8 +4747,11 @@
         <f>H103*J103*公式計算用參數!$B$1</f>
         <v>76.949999999999989</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <v>44412</v>
       </c>
@@ -4592,8 +4786,11 @@
         <f>H104*J104*公式計算用參數!$B$1</f>
         <v>229.78124999999997</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>44412</v>
       </c>
@@ -4628,8 +4825,11 @@
         <f>H105*J105*公式計算用參數!$B$1</f>
         <v>26.576249999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>44454</v>
       </c>
@@ -4670,7 +4870,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>44454</v>
       </c>
@@ -4711,7 +4911,7 @@
         <v>255.9</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>44462</v>
       </c>
@@ -4752,7 +4952,7 @@
         <v>352.5</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>44462</v>
       </c>
@@ -4793,7 +4993,7 @@
         <v>355.5</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>44462</v>
       </c>
@@ -4834,7 +5034,7 @@
         <v>1075.5</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>44462</v>
       </c>
@@ -4875,7 +5075,7 @@
         <v>133.35</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>44462</v>
       </c>
@@ -4916,7 +5116,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>44462</v>
       </c>
@@ -4957,7 +5157,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>44466</v>
       </c>
@@ -4998,7 +5198,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>44466</v>
       </c>
@@ -5039,7 +5239,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>44473</v>
       </c>
@@ -5074,8 +5274,11 @@
         <f>H116*J116*公式計算用參數!$B$1</f>
         <v>406.83749999999998</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>44481</v>
       </c>
@@ -5116,7 +5319,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>44484</v>
       </c>
@@ -5151,8 +5354,11 @@
         <f>H118*J118*公式計算用參數!$B$1</f>
         <v>388.31249999999994</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>44490</v>
       </c>
@@ -5187,8 +5393,11 @@
         <f>H119*J119*公式計算用參數!$B$1</f>
         <v>123.11999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>44495</v>
       </c>
@@ -5229,7 +5438,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>44529</v>
       </c>
@@ -5270,7 +5479,7 @@
         <v>560.70000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>44529</v>
       </c>
@@ -5311,7 +5520,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>44530</v>
       </c>
@@ -5346,8 +5555,11 @@
         <f>H123*J123*公式計算用參數!$B$1</f>
         <v>161.38124999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>44530</v>
       </c>
@@ -5382,8 +5594,11 @@
         <f>H124*J124*公式計算用參數!$B$1</f>
         <v>136.79999999999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>44532</v>
       </c>
@@ -5418,8 +5633,11 @@
         <f>H125*J125*公式計算用參數!$B$1</f>
         <v>240.46874999999997</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>44533</v>
       </c>
@@ -5454,8 +5672,11 @@
         <f>H126*J126*公式計算用參數!$B$1</f>
         <v>279.65624999999994</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <v>44553</v>
       </c>
@@ -5496,7 +5717,7 @@
         <v>150.9</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>44554</v>
       </c>
@@ -5531,8 +5752,11 @@
         <f>H128*J128*公式計算用參數!$B$1</f>
         <v>35.197499999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>44557</v>
       </c>
@@ -5573,7 +5797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
         <v>44566</v>
       </c>
@@ -5608,8 +5832,11 @@
         <f>H130*J130*公式計算用參數!$B$1</f>
         <v>212.68124999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>44567</v>
       </c>
@@ -5644,8 +5871,11 @@
         <f>H131*J131*公式計算用參數!$B$1</f>
         <v>105.02249999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11">
         <v>44568</v>
       </c>
@@ -5680,8 +5910,11 @@
         <f>H132*J132*公式計算用參數!$B$1</f>
         <v>89.774999999999991</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11">
         <v>44586</v>
       </c>
@@ -5716,8 +5949,11 @@
         <f>H133*J133*公式計算用參數!$B$1</f>
         <v>100.81874999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11">
         <v>44587</v>
       </c>
@@ -5752,8 +5988,11 @@
         <f>H134*J134*公式計算用參數!$B$1</f>
         <v>455.28749999999997</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="11">
         <v>44587</v>
       </c>
@@ -5788,8 +6027,11 @@
         <f>H135*J135*公式計算用參數!$B$1</f>
         <v>100.99687499999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11">
         <v>44624</v>
       </c>
@@ -5830,7 +6072,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11">
         <v>44638</v>
       </c>
@@ -5871,7 +6113,7 @@
         <v>388.5</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11">
         <v>44644</v>
       </c>
@@ -5906,8 +6148,11 @@
         <f>H138*J138*公式計算用參數!$B$1</f>
         <v>421.08749999999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>44650</v>
       </c>
@@ -5942,8 +6187,11 @@
         <f>H139*J139*公式計算用參數!$B$1</f>
         <v>426.07499999999993</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>44652</v>
       </c>
@@ -5978,8 +6226,11 @@
         <f>H140*J140*公式計算用參數!$B$1</f>
         <v>416.81249999999994</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11">
         <v>44658</v>
       </c>
@@ -6014,8 +6265,11 @@
         <f>H141*J141*公式計算用參數!$B$1</f>
         <v>406.83749999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>44753</v>
       </c>
@@ -6050,8 +6304,11 @@
         <f>H142*J142*公式計算用參數!$B$1</f>
         <v>160.31249999999997</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
         <v>44753</v>
       </c>
@@ -6086,8 +6343,11 @@
         <f>H143*J143*公式計算用參數!$B$1</f>
         <v>160.16999999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>44812</v>
       </c>
@@ -6122,8 +6382,11 @@
         <f>H144*J144*公式計算用參數!$B$1</f>
         <v>160.88249999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="11">
         <v>44838</v>
       </c>
@@ -6164,7 +6427,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>44848</v>
       </c>
@@ -6199,8 +6462,11 @@
         <f>H146*J146*公式計算用參數!$B$1</f>
         <v>294.26249999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>44848</v>
       </c>
@@ -6235,8 +6501,11 @@
         <f>H147*J147*公式計算用參數!$B$1</f>
         <v>72.674999999999997</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>44883</v>
       </c>
@@ -6277,7 +6546,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11">
         <v>44897</v>
       </c>
@@ -6312,8 +6581,11 @@
         <f>H149*J149*公式計算用參數!$B$1</f>
         <v>130.52999999999997</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="11">
         <v>44900</v>
       </c>
@@ -6348,8 +6620,11 @@
         <f>H150*J150*公式計算用參數!$B$1</f>
         <v>341.99999999999994</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="11">
         <v>44902</v>
       </c>
@@ -6384,8 +6659,11 @@
         <f>H151*J151*公式計算用參數!$B$1</f>
         <v>350.54999999999995</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>44902</v>
       </c>
@@ -6420,8 +6698,11 @@
         <f>H152*J152*公式計算用參數!$B$1</f>
         <v>76.949999999999989</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>45009</v>
       </c>
@@ -6462,7 +6743,7 @@
         <v>1567.5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>45117</v>
       </c>
@@ -6497,8 +6778,11 @@
         <f>H154*J154*公式計算用參數!$B$1</f>
         <v>273.27937499999996</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>45120</v>
       </c>
@@ -6539,7 +6823,7 @@
         <v>1196.6400000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11">
         <v>45139</v>
       </c>
@@ -6574,8 +6858,11 @@
         <f>H156*J156*公式計算用參數!$B$1</f>
         <v>276.69937499999992</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="11">
         <v>45148</v>
       </c>
@@ -6610,8 +6897,11 @@
         <f>H157*J157*公式計算用參數!$B$1</f>
         <v>394.01249999999993</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
         <v>45154</v>
       </c>
@@ -6646,8 +6936,11 @@
         <f>H158*J158*公式計算用參數!$B$1</f>
         <v>384.74999999999994</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11">
         <v>45160</v>
       </c>
@@ -6682,8 +6975,11 @@
         <f>H159*J159*公式計算用參數!$B$1</f>
         <v>176.41499999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>45232</v>
       </c>
@@ -6718,8 +7014,11 @@
         <f>H160*J160*公式計算用參數!$B$1</f>
         <v>88.35</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>45263</v>
       </c>
@@ -6754,8 +7053,11 @@
         <f>H161*J161*公式計算用參數!$B$1</f>
         <v>132.92399999999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>45294</v>
       </c>
@@ -6796,7 +7098,7 @@
         <v>628.80000000000007</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>45310</v>
       </c>
@@ -6831,8 +7133,11 @@
         <f>H163*J163*公式計算用參數!$B$1</f>
         <v>298.67999999999995</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>45344</v>
       </c>
@@ -6867,8 +7172,11 @@
         <f>H164*J164*公式計算用參數!$B$1</f>
         <v>492.33749999999992</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>45362</v>
       </c>
@@ -6909,7 +7217,7 @@
         <v>1591.2</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="11">
         <v>45363</v>
       </c>
@@ -6944,8 +7252,11 @@
         <f>H166*J166*公式計算用參數!$B$1</f>
         <v>547.91249999999991</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11">
         <v>45389</v>
       </c>
@@ -6980,8 +7291,11 @@
         <f>H167*J167*公式計算用參數!$B$1</f>
         <v>28.001249999999995</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11">
         <v>45389</v>
       </c>
@@ -7016,8 +7330,11 @@
         <f>H168*J168*公式計算用參數!$B$1</f>
         <v>118.91624999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11">
         <v>45389</v>
       </c>
@@ -7052,8 +7369,11 @@
         <f>H169*J169*公式計算用參數!$B$1</f>
         <v>122.79937499999998</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11">
         <v>45389</v>
       </c>
@@ -7088,8 +7408,11 @@
         <f>H170*J170*公式計算用參數!$B$1</f>
         <v>105.84187499999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11">
         <v>45397</v>
       </c>
@@ -7130,7 +7453,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11">
         <v>45397</v>
       </c>
@@ -7171,7 +7494,7 @@
         <v>14490</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11">
         <v>45401</v>
       </c>
@@ -7206,8 +7529,11 @@
         <f>H173*J173*公式計算用參數!$B$1</f>
         <v>1075.8749999999998</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11">
         <v>45405</v>
       </c>
@@ -7242,8 +7568,11 @@
         <f>H174*J174*公式計算用參數!$B$1</f>
         <v>537.93749999999989</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11">
         <v>45411</v>
       </c>
@@ -7278,8 +7607,11 @@
         <f>H175*J175*公式計算用參數!$B$1</f>
         <v>562.87499999999989</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>45412</v>
       </c>
@@ -7314,8 +7646,11 @@
         <f>H176*J176*公式計算用參數!$B$1</f>
         <v>1139.9999999999998</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11">
         <v>45414</v>
       </c>
@@ -7350,8 +7685,11 @@
         <f>H177*J177*公式計算用參數!$B$1</f>
         <v>555.74999999999989</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="11">
         <v>45418</v>
       </c>
@@ -7382,12 +7720,15 @@
       <c r="J178" s="1">
         <v>1000</v>
       </c>
-      <c r="K178" s="10" t="e">
-        <f>H178*J178*#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K178" s="10">
+        <f>H178*J178*公式計算用參數!$B$1</f>
+        <v>563.58749999999998</v>
+      </c>
+      <c r="L178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="11">
         <v>45475</v>
       </c>
@@ -7419,9 +7760,14 @@
         <f>G179</f>
         <v>15</v>
       </c>
-      <c r="K179" s="10"/>
-    </row>
-    <row r="180" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K179" s="10">
+        <v>0</v>
+      </c>
+      <c r="L179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11">
         <v>45475</v>
       </c>
@@ -7453,9 +7799,14 @@
         <f t="shared" ref="J180:J184" si="14">G180</f>
         <v>15</v>
       </c>
-      <c r="K180" s="10"/>
-    </row>
-    <row r="181" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K180" s="10">
+        <v>0</v>
+      </c>
+      <c r="L180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11">
         <v>45475</v>
       </c>
@@ -7487,9 +7838,14 @@
         <f t="shared" si="14"/>
         <v>25</v>
       </c>
-      <c r="K181" s="10"/>
-    </row>
-    <row r="182" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K181" s="10">
+        <v>0</v>
+      </c>
+      <c r="L181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11">
         <v>45475</v>
       </c>
@@ -7521,9 +7877,14 @@
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="K182" s="10"/>
-    </row>
-    <row r="183" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K182" s="10">
+        <v>0</v>
+      </c>
+      <c r="L182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11">
         <v>45475</v>
       </c>
@@ -7555,9 +7916,14 @@
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="K183" s="10"/>
-    </row>
-    <row r="184" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K183" s="10">
+        <v>0</v>
+      </c>
+      <c r="L183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11">
         <v>45476</v>
       </c>
@@ -7589,9 +7955,14 @@
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="K184" s="10"/>
-    </row>
-    <row r="185" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K184" s="10">
+        <v>0</v>
+      </c>
+      <c r="L184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11">
         <v>45476</v>
       </c>
@@ -7632,7 +8003,7 @@
         <v>406.5</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11">
         <v>45476</v>
       </c>
@@ -7673,7 +8044,7 @@
         <v>569.1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="11">
         <v>45476</v>
       </c>
@@ -7705,9 +8076,14 @@
         <f t="shared" ref="J187:J188" si="15">G187</f>
         <v>17</v>
       </c>
-      <c r="K187" s="10"/>
-    </row>
-    <row r="188" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K187" s="10">
+        <v>0</v>
+      </c>
+      <c r="L187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11">
         <v>45476</v>
       </c>
@@ -7739,9 +8115,14 @@
         <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="K188" s="10"/>
-    </row>
-    <row r="189" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K188" s="10">
+        <v>0</v>
+      </c>
+      <c r="L188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11">
         <v>45488</v>
       </c>
@@ -7782,7 +8163,7 @@
         <v>24720</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="11">
         <v>45489</v>
       </c>
@@ -7817,8 +8198,11 @@
         <f>H190*J190*公式計算用參數!$B$1</f>
         <v>6098.9999999999991</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11">
         <v>45489</v>
       </c>
@@ -7850,9 +8234,14 @@
         <f t="shared" ref="J191:J200" si="16">G191</f>
         <v>53</v>
       </c>
-      <c r="K191" s="10"/>
-    </row>
-    <row r="192" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K191" s="10">
+        <v>0</v>
+      </c>
+      <c r="L191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11">
         <v>45489</v>
       </c>
@@ -7884,9 +8273,14 @@
         <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="K192" s="10"/>
-    </row>
-    <row r="193" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K192" s="10">
+        <v>0</v>
+      </c>
+      <c r="L192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="11">
         <v>45489</v>
       </c>
@@ -7918,9 +8312,14 @@
         <f t="shared" si="16"/>
         <v>40</v>
       </c>
-      <c r="K193" s="10"/>
-    </row>
-    <row r="194" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K193" s="10">
+        <v>0</v>
+      </c>
+      <c r="L193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="11">
         <v>45490</v>
       </c>
@@ -7952,9 +8351,14 @@
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="K194" s="10"/>
-    </row>
-    <row r="195" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K194" s="10">
+        <v>0</v>
+      </c>
+      <c r="L194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11">
         <v>45490</v>
       </c>
@@ -7986,9 +8390,14 @@
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="K195" s="10"/>
-    </row>
-    <row r="196" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K195" s="10">
+        <v>0</v>
+      </c>
+      <c r="L195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11">
         <v>45490</v>
       </c>
@@ -8020,9 +8429,14 @@
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="K196" s="10"/>
-    </row>
-    <row r="197" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K196" s="10">
+        <v>0</v>
+      </c>
+      <c r="L196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11">
         <v>45490</v>
       </c>
@@ -8054,9 +8468,14 @@
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="K197" s="10"/>
-    </row>
-    <row r="198" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K197" s="10">
+        <v>0</v>
+      </c>
+      <c r="L197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11">
         <v>45492</v>
       </c>
@@ -8088,9 +8507,14 @@
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="K198" s="10"/>
-    </row>
-    <row r="199" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K198" s="10">
+        <v>0</v>
+      </c>
+      <c r="L198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11">
         <v>45492</v>
       </c>
@@ -8122,9 +8546,14 @@
         <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="K199" s="10"/>
-    </row>
-    <row r="200" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K199" s="10">
+        <v>0</v>
+      </c>
+      <c r="L199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11">
         <v>45492</v>
       </c>
@@ -8156,9 +8585,14 @@
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
-      <c r="K200" s="10"/>
-    </row>
-    <row r="201" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K200" s="10">
+        <v>0</v>
+      </c>
+      <c r="L200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11">
         <v>45506</v>
       </c>
@@ -8199,7 +8633,7 @@
         <v>534.29999999999995</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11">
         <v>45506</v>
       </c>
@@ -8234,8 +8668,11 @@
         <f>H202*J202*公式計算用參數!$B$1</f>
         <v>647.66249999999991</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11">
         <v>45506</v>
       </c>
@@ -8276,7 +8713,7 @@
         <v>488.55</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11">
         <v>45506</v>
       </c>
@@ -8317,7 +8754,7 @@
         <v>543.75</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11">
         <v>45506</v>
       </c>
@@ -8358,7 +8795,7 @@
         <v>137.85</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11">
         <v>45509</v>
       </c>
@@ -8393,8 +8830,11 @@
         <f>H206*J206*公式計算用參數!$B$1</f>
         <v>117.27749999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="11">
         <v>45510</v>
       </c>
@@ -8426,9 +8866,14 @@
         <f t="shared" ref="J207:J215" si="18">G207</f>
         <v>10</v>
       </c>
-      <c r="K207" s="10"/>
-    </row>
-    <row r="208" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K207" s="10">
+        <v>0</v>
+      </c>
+      <c r="L207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="11">
         <v>45510</v>
       </c>
@@ -8460,9 +8905,14 @@
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="K208" s="10"/>
-    </row>
-    <row r="209" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K208" s="10">
+        <v>0</v>
+      </c>
+      <c r="L208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="11">
         <v>45511</v>
       </c>
@@ -8494,9 +8944,14 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="K209" s="10"/>
-    </row>
-    <row r="210" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K209" s="10">
+        <v>0</v>
+      </c>
+      <c r="L209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="11">
         <v>45511</v>
       </c>
@@ -8528,9 +8983,14 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="K210" s="10"/>
-    </row>
-    <row r="211" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K210" s="10">
+        <v>0</v>
+      </c>
+      <c r="L210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="11">
         <v>45511</v>
       </c>
@@ -8562,9 +9022,14 @@
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="K211" s="10"/>
-    </row>
-    <row r="212" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K211" s="10">
+        <v>0</v>
+      </c>
+      <c r="L211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="11">
         <v>45533</v>
       </c>
@@ -8596,9 +9061,14 @@
         <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="K212" s="10"/>
-    </row>
-    <row r="213" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K212" s="10">
+        <v>0</v>
+      </c>
+      <c r="L212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="11">
         <v>45533</v>
       </c>
@@ -8630,9 +9100,14 @@
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="K213" s="10"/>
-    </row>
-    <row r="214" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K213" s="10">
+        <v>0</v>
+      </c>
+      <c r="L213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="11">
         <v>45533</v>
       </c>
@@ -8664,9 +9139,14 @@
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="K214" s="10"/>
-    </row>
-    <row r="215" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K214" s="10">
+        <v>0</v>
+      </c>
+      <c r="L214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="11">
         <v>45533</v>
       </c>
@@ -8698,9 +9178,14 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="K215" s="10"/>
-    </row>
-    <row r="216" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K215" s="10">
+        <v>0</v>
+      </c>
+      <c r="L215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="11">
         <v>45546</v>
       </c>
@@ -8732,9 +9217,14 @@
         <f>G216</f>
         <v>-2</v>
       </c>
-      <c r="K216" s="10"/>
-    </row>
-    <row r="217" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K216" s="10">
+        <v>0</v>
+      </c>
+      <c r="L216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="11">
         <v>45546</v>
       </c>
@@ -8766,9 +9256,14 @@
         <f>G217</f>
         <v>-98</v>
       </c>
-      <c r="K217" s="10"/>
-    </row>
-    <row r="218" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K217" s="10">
+        <v>0</v>
+      </c>
+      <c r="L217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="11">
         <v>45559</v>
       </c>
@@ -8800,9 +9295,14 @@
         <f t="shared" ref="J218:J220" si="19">G218</f>
         <v>10</v>
       </c>
-      <c r="K218" s="10"/>
-    </row>
-    <row r="219" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K218" s="10">
+        <v>0</v>
+      </c>
+      <c r="L218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="11">
         <v>45581</v>
       </c>
@@ -8834,9 +9334,14 @@
         <f t="shared" si="19"/>
         <v>34</v>
       </c>
-      <c r="K219" s="10"/>
-    </row>
-    <row r="220" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K219" s="10">
+        <v>0</v>
+      </c>
+      <c r="L219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="11">
         <v>45607</v>
       </c>
@@ -8868,9 +9373,14 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="K220" s="10"/>
-    </row>
-    <row r="221" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K220" s="10">
+        <v>0</v>
+      </c>
+      <c r="L220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="11">
         <v>45607</v>
       </c>
@@ -8902,9 +9412,14 @@
         <f>G221</f>
         <v>-100</v>
       </c>
-      <c r="K221" s="10"/>
-    </row>
-    <row r="222" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K221" s="10">
+        <v>0</v>
+      </c>
+      <c r="L221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="11">
         <v>45614</v>
       </c>
@@ -8936,9 +9451,14 @@
         <f t="shared" ref="J222:J225" si="20">G222</f>
         <v>95</v>
       </c>
-      <c r="K222" s="10"/>
-    </row>
-    <row r="223" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K222" s="10">
+        <v>0</v>
+      </c>
+      <c r="L222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="11">
         <v>45614</v>
       </c>
@@ -8970,9 +9490,14 @@
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="K223" s="10"/>
-    </row>
-    <row r="224" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K223" s="10">
+        <v>0</v>
+      </c>
+      <c r="L223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="11">
         <v>45614</v>
       </c>
@@ -9004,9 +9529,14 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="K224" s="10"/>
-    </row>
-    <row r="225" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K224" s="10">
+        <v>0</v>
+      </c>
+      <c r="L224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="11">
         <v>45614</v>
       </c>
@@ -9038,9 +9568,14 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="K225" s="10"/>
-    </row>
-    <row r="226" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K225" s="10">
+        <v>0</v>
+      </c>
+      <c r="L225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="11">
         <v>45645</v>
       </c>
@@ -9081,7 +9616,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="11">
         <v>45645</v>
       </c>
@@ -9113,9 +9648,14 @@
         <f>G227</f>
         <v>-100</v>
       </c>
-      <c r="K227" s="10"/>
-    </row>
-    <row r="228" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K227" s="10">
+        <v>0</v>
+      </c>
+      <c r="L227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="11">
         <v>45645</v>
       </c>
@@ -9147,9 +9687,14 @@
         <f>G228</f>
         <v>1</v>
       </c>
-      <c r="K228" s="10"/>
-    </row>
-    <row r="229" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K228" s="10">
+        <v>0</v>
+      </c>
+      <c r="L228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="11">
         <v>45649</v>
       </c>
@@ -9181,9 +9726,14 @@
         <f>G229</f>
         <v>-10</v>
       </c>
-      <c r="K229" s="10"/>
-    </row>
-    <row r="230" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K229" s="10">
+        <v>0</v>
+      </c>
+      <c r="L229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="11">
         <v>45649</v>
       </c>
@@ -9215,9 +9765,14 @@
         <f t="shared" ref="J230:J233" si="21">G230</f>
         <v>7</v>
       </c>
-      <c r="K230" s="10"/>
-    </row>
-    <row r="231" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K230" s="10">
+        <v>0</v>
+      </c>
+      <c r="L230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="11">
         <v>45649</v>
       </c>
@@ -9249,9 +9804,14 @@
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="K231" s="10"/>
-    </row>
-    <row r="232" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K231" s="10">
+        <v>0</v>
+      </c>
+      <c r="L231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="11">
         <v>45649</v>
       </c>
@@ -9283,9 +9843,14 @@
         <f t="shared" si="21"/>
         <v>90</v>
       </c>
-      <c r="K232" s="10"/>
-    </row>
-    <row r="233" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K232" s="10">
+        <v>0</v>
+      </c>
+      <c r="L232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="11">
         <v>45691</v>
       </c>
@@ -9317,9 +9882,14 @@
         <f t="shared" si="21"/>
         <v>55</v>
       </c>
-      <c r="K233" s="10"/>
-    </row>
-    <row r="234" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K233" s="10">
+        <v>0</v>
+      </c>
+      <c r="L233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="11">
         <v>45691</v>
       </c>
@@ -9351,9 +9921,14 @@
         <f>G234</f>
         <v>-129</v>
       </c>
-      <c r="K234" s="10"/>
-    </row>
-    <row r="235" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K234" s="10">
+        <v>0</v>
+      </c>
+      <c r="L234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="11">
         <v>45691</v>
       </c>
@@ -9385,9 +9960,14 @@
         <f>G235</f>
         <v>1</v>
       </c>
-      <c r="K235" s="10"/>
-    </row>
-    <row r="236" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K235" s="10">
+        <v>0</v>
+      </c>
+      <c r="L235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11">
         <v>45719</v>
       </c>
@@ -9419,9 +9999,14 @@
         <f>G236</f>
         <v>-160</v>
       </c>
-      <c r="K236" s="10"/>
-    </row>
-    <row r="237" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K236" s="10">
+        <v>0</v>
+      </c>
+      <c r="L236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11">
         <v>45720</v>
       </c>
@@ -9453,9 +10038,14 @@
         <f t="shared" ref="J237:J241" si="22">G237</f>
         <v>10</v>
       </c>
-      <c r="K237" s="10"/>
-    </row>
-    <row r="238" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K237" s="10">
+        <v>0</v>
+      </c>
+      <c r="L237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11">
         <v>45726</v>
       </c>
@@ -9487,9 +10077,14 @@
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="K238" s="10"/>
-    </row>
-    <row r="239" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K238" s="10">
+        <v>0</v>
+      </c>
+      <c r="L238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11">
         <v>45726</v>
       </c>
@@ -9521,9 +10116,14 @@
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="K239" s="10"/>
-    </row>
-    <row r="240" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K239" s="10">
+        <v>0</v>
+      </c>
+      <c r="L239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11">
         <v>45726</v>
       </c>
@@ -9555,9 +10155,14 @@
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="K240" s="10"/>
-    </row>
-    <row r="241" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K240" s="10">
+        <v>0</v>
+      </c>
+      <c r="L240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="11">
         <v>45728</v>
       </c>
@@ -9589,9 +10194,14 @@
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="K241" s="10"/>
-    </row>
-    <row r="242" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K241" s="10">
+        <v>0</v>
+      </c>
+      <c r="L241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="11">
         <v>45727</v>
       </c>
@@ -9632,7 +10242,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="11">
         <v>45728</v>
       </c>
@@ -9664,9 +10274,14 @@
         <f>G243</f>
         <v>10</v>
       </c>
-      <c r="K243" s="10"/>
-    </row>
-    <row r="244" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K243" s="10">
+        <v>0</v>
+      </c>
+      <c r="L243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="11">
         <v>45747</v>
       </c>
@@ -9701,8 +10316,11 @@
         <f>H244*J244*公式計算用參數!$B$1</f>
         <v>648.37499999999989</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="11">
         <v>45755</v>
       </c>
@@ -9737,8 +10355,11 @@
         <f>H245*J245*公式計算用參數!$B$1</f>
         <v>577.12499999999989</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="11">
         <v>45758</v>
       </c>
@@ -12153,17 +12774,7 @@
       <c r="H1005" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L246" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="2002"/>
-        <filter val="2338"/>
-        <filter val="4938"/>
-        <filter val="6278"/>
-        <filter val="6414"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L246" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D89" r:id="rId1" display="6770.TW" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D8ED24-42A9-D342-BD9F-820D2741942A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BFB8B4-27F9-9546-AA7E-7B5094633B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L177" sqref="L177"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -651,8 +651,9 @@
     <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -712,7 +713,7 @@
       <c r="D2" s="13">
         <v>2330</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -751,7 +752,7 @@
       <c r="D3" s="13">
         <v>2330</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -790,7 +791,7 @@
       <c r="D4" s="13">
         <v>2330</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -829,7 +830,7 @@
       <c r="D5" s="13">
         <v>2330</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -870,7 +871,7 @@
       <c r="D6" s="13">
         <v>2317</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -909,7 +910,7 @@
       <c r="D7" s="13">
         <v>2330</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -948,7 +949,7 @@
       <c r="D8" s="13">
         <v>2330</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -987,7 +988,7 @@
       <c r="D9" s="13">
         <v>2330</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1028,7 +1029,7 @@
       <c r="D10" s="13">
         <v>2330</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1067,7 +1068,7 @@
       <c r="D11" s="13">
         <v>2330</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1108,7 +1109,7 @@
       <c r="D12" s="13">
         <v>2330</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1147,7 +1148,7 @@
       <c r="D13" s="13">
         <v>2330</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -1186,7 +1187,7 @@
       <c r="D14" s="13">
         <v>2454</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -1225,7 +1226,7 @@
       <c r="D15" s="13">
         <v>2454</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -1264,7 +1265,7 @@
       <c r="D16" s="13">
         <v>2317</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1305,7 +1306,7 @@
       <c r="D17" s="13">
         <v>2330</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1346,7 +1347,7 @@
       <c r="D18" s="13">
         <v>2454</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -1385,7 +1386,7 @@
       <c r="D19" s="13">
         <v>2454</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1426,7 +1427,7 @@
       <c r="D20" s="13">
         <v>2454</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -1465,7 +1466,7 @@
       <c r="D21" s="13">
         <v>2330</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -1504,7 +1505,7 @@
       <c r="D22" s="13">
         <v>2330</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -1543,7 +1544,7 @@
       <c r="D23" s="13">
         <v>2454</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1584,7 +1585,7 @@
       <c r="D24" s="13">
         <v>2454</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1625,7 +1626,7 @@
       <c r="D25" s="13">
         <v>2454</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1666,7 +1667,7 @@
       <c r="D26" s="13">
         <v>2330</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -1705,7 +1706,7 @@
       <c r="D27" s="13">
         <v>2330</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="12" t="s">
@@ -1744,7 +1745,7 @@
       <c r="D28" s="13">
         <v>6414</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -1783,7 +1784,7 @@
       <c r="D29" s="13">
         <v>4938</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="12" t="s">
@@ -1822,7 +1823,7 @@
       <c r="D30" s="13">
         <v>2330</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="12" t="s">
@@ -1861,7 +1862,7 @@
       <c r="D31" s="13">
         <v>2330</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="12" t="s">
@@ -1900,7 +1901,7 @@
       <c r="D32" s="13">
         <v>4938</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1941,7 +1942,7 @@
       <c r="D33" s="13">
         <v>6414</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1982,7 +1983,7 @@
       <c r="D34" s="13">
         <v>6278</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -2023,7 +2024,7 @@
       <c r="D35" s="13">
         <v>2330</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="12" t="s">
@@ -2062,7 +2063,7 @@
       <c r="D36" s="13">
         <v>6278</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="12" t="s">
@@ -2101,7 +2102,7 @@
       <c r="D37" s="13">
         <v>3006</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="12" t="s">
@@ -2140,7 +2141,7 @@
       <c r="D38" s="13">
         <v>2330</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2181,7 +2182,7 @@
       <c r="D39" s="13">
         <v>2330</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="12" t="s">
@@ -2220,7 +2221,7 @@
       <c r="D40" s="13">
         <v>2330</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="12" t="s">
@@ -2259,7 +2260,7 @@
       <c r="D41" s="13">
         <v>2303</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="12" t="s">
@@ -2298,7 +2299,7 @@
       <c r="D42" s="13">
         <v>2303</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="12" t="s">
@@ -2337,7 +2338,7 @@
       <c r="D43" s="13">
         <v>2338</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="12" t="s">
@@ -2376,7 +2377,7 @@
       <c r="D44" s="13">
         <v>3006</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -2417,7 +2418,7 @@
       <c r="D45" s="13">
         <v>2303</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -2458,7 +2459,7 @@
       <c r="D46" s="13">
         <v>2330</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="12" t="s">
@@ -2497,7 +2498,7 @@
       <c r="D47" s="13">
         <v>2338</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -2538,7 +2539,7 @@
       <c r="D48" s="13">
         <v>3006</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="12" t="s">
@@ -2577,7 +2578,7 @@
       <c r="D49" s="13">
         <v>3006</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="12" t="s">
@@ -2616,7 +2617,7 @@
       <c r="D50" s="13">
         <v>3006</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="12" t="s">
@@ -2655,7 +2656,7 @@
       <c r="D51" s="13">
         <v>2303</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -2696,7 +2697,7 @@
       <c r="D52" s="13">
         <v>2338</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -2737,7 +2738,7 @@
       <c r="D53" s="13">
         <v>2338</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="12" t="s">
@@ -2776,7 +2777,7 @@
       <c r="D54" s="13">
         <v>2338</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -2817,7 +2818,7 @@
       <c r="D55" s="13">
         <v>2338</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="12" t="s">
@@ -2856,7 +2857,7 @@
       <c r="D56" s="13">
         <v>3006</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -2897,7 +2898,7 @@
       <c r="D57" s="13">
         <v>1533</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="12" t="s">
@@ -2936,7 +2937,7 @@
       <c r="D58" s="13">
         <v>2338</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="12" t="s">
@@ -2975,7 +2976,7 @@
       <c r="D59" s="13">
         <v>1533</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="12" t="s">
@@ -3014,7 +3015,7 @@
       <c r="D60" s="13">
         <v>1533</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
@@ -3055,7 +3056,7 @@
       <c r="D61" s="13">
         <v>2338</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -3096,7 +3097,7 @@
       <c r="D62" s="13">
         <v>1533</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="12" t="s">
@@ -3135,7 +3136,7 @@
       <c r="D63" s="13">
         <v>1533</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="12" t="s">
@@ -3174,7 +3175,7 @@
       <c r="D64" s="13">
         <v>2002</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -3215,7 +3216,7 @@
       <c r="D65" s="13">
         <v>2002</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="12" t="s">
@@ -3254,7 +3255,7 @@
       <c r="D66" s="13">
         <v>2002</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="12" t="s">
@@ -3293,7 +3294,7 @@
       <c r="D67" s="13">
         <v>2002</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -3334,7 +3335,7 @@
       <c r="D68" s="13">
         <v>2002</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -3375,7 +3376,7 @@
       <c r="D69" s="13">
         <v>2002</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="12" t="s">
@@ -3414,7 +3415,7 @@
       <c r="D70" s="13">
         <v>2002</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="12" t="s">
@@ -3453,7 +3454,7 @@
       <c r="D71" s="13">
         <v>2002</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="12" t="s">
@@ -3492,7 +3493,7 @@
       <c r="D72" s="13">
         <v>2330</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -3533,7 +3534,7 @@
       <c r="D73" s="13">
         <v>2330</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -3574,7 +3575,7 @@
       <c r="D74" s="13">
         <v>3006</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="12" t="s">
@@ -3613,7 +3614,7 @@
       <c r="D75" s="13">
         <v>3006</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="12" t="s">
@@ -3652,7 +3653,7 @@
       <c r="D76" s="13">
         <v>2330</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="12" t="s">
@@ -3691,7 +3692,7 @@
       <c r="D77" s="13">
         <v>3006</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -3732,7 +3733,7 @@
       <c r="D78" s="13">
         <v>3006</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
@@ -3773,7 +3774,7 @@
       <c r="D79" s="13">
         <v>2002</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -3814,7 +3815,7 @@
       <c r="D80" s="13">
         <v>1533</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -3855,7 +3856,7 @@
       <c r="D81" s="13">
         <v>2330</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -3896,7 +3897,7 @@
       <c r="D82" s="13">
         <v>2330</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="12" t="s">
@@ -3935,7 +3936,7 @@
       <c r="D83" s="13">
         <v>2330</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="12" t="s">
@@ -3974,7 +3975,7 @@
       <c r="D84" s="13">
         <v>3006</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="12" t="s">
@@ -4013,7 +4014,7 @@
       <c r="D85" s="13">
         <v>3006</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
@@ -4054,7 +4055,7 @@
       <c r="D86" s="13">
         <v>3006</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -4095,7 +4096,7 @@
       <c r="D87" s="13">
         <v>3006</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
@@ -4136,7 +4137,7 @@
       <c r="D88" s="13">
         <v>2330</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="12" t="s">
@@ -4175,7 +4176,7 @@
       <c r="D89" s="13">
         <v>6770</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="12" t="s">
@@ -4214,7 +4215,7 @@
       <c r="D90" s="13">
         <v>2457</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="12" t="s">
@@ -4253,7 +4254,7 @@
       <c r="D91" s="13">
         <v>2457</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="12" t="s">
@@ -4292,7 +4293,7 @@
       <c r="D92" s="13">
         <v>3707</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F92" s="12" t="s">
@@ -4331,7 +4332,7 @@
       <c r="D93" s="13">
         <v>3707</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F93" s="12" t="s">
@@ -4370,7 +4371,7 @@
       <c r="D94" s="13">
         <v>2330</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
@@ -4411,7 +4412,7 @@
       <c r="D95" s="13">
         <v>1308</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="12" t="s">
@@ -4450,7 +4451,7 @@
       <c r="D96" s="13">
         <v>1308</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F96" s="12" t="s">
@@ -4489,7 +4490,7 @@
       <c r="D97" s="13">
         <v>2330</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="3" t="s">
@@ -4530,7 +4531,7 @@
       <c r="D98" s="13">
         <v>3707</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="12" t="s">
@@ -4569,7 +4570,7 @@
       <c r="D99" s="13">
         <v>3707</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="12" t="s">
@@ -4608,7 +4609,7 @@
       <c r="D100" s="13">
         <v>3707</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F100" s="12" t="s">
@@ -4647,7 +4648,7 @@
       <c r="D101" s="13">
         <v>3707</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="12" t="s">
@@ -4686,7 +4687,7 @@
       <c r="D102" s="13">
         <v>1308</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F102" s="12" t="s">
@@ -4725,7 +4726,7 @@
       <c r="D103" s="13">
         <v>3707</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F103" s="12" t="s">
@@ -4764,7 +4765,7 @@
       <c r="D104" s="13">
         <v>3707</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="12" t="s">
@@ -4803,7 +4804,7 @@
       <c r="D105" s="13">
         <v>1308</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="12" t="s">
@@ -4842,7 +4843,7 @@
       <c r="D106" s="13">
         <v>1308</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F106" s="3" t="s">
@@ -4883,7 +4884,7 @@
       <c r="D107" s="13">
         <v>1308</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F107" s="3" t="s">
@@ -4924,7 +4925,7 @@
       <c r="D108" s="13">
         <v>3707</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F108" s="3" t="s">
@@ -4965,7 +4966,7 @@
       <c r="D109" s="13">
         <v>3707</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F109" s="3" t="s">
@@ -5006,7 +5007,7 @@
       <c r="D110" s="13">
         <v>3707</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F110" s="3" t="s">
@@ -5047,7 +5048,7 @@
       <c r="D111" s="13">
         <v>1308</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F111" s="3" t="s">
@@ -5088,7 +5089,7 @@
       <c r="D112" s="13">
         <v>3707</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F112" s="3" t="s">
@@ -5129,7 +5130,7 @@
       <c r="D113" s="13">
         <v>1308</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F113" s="3" t="s">
@@ -5170,7 +5171,7 @@
       <c r="D114" s="13">
         <v>3707</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F114" s="3" t="s">
@@ -5211,7 +5212,7 @@
       <c r="D115" s="13">
         <v>3707</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F115" s="3" t="s">
@@ -5252,7 +5253,7 @@
       <c r="D116" s="13">
         <v>2330</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F116" s="12" t="s">
@@ -5291,7 +5292,7 @@
       <c r="D117" s="13">
         <v>3707</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="3" t="s">
@@ -5332,7 +5333,7 @@
       <c r="D118" s="13">
         <v>2317</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F118" s="12" t="s">
@@ -5371,7 +5372,7 @@
       <c r="D119" s="13">
         <v>2303</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F119" s="12" t="s">
@@ -5410,7 +5411,7 @@
       <c r="D120" s="13">
         <v>3707</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F120" s="3" t="s">
@@ -5451,7 +5452,7 @@
       <c r="D121" s="13">
         <v>2303</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F121" s="3" t="s">
@@ -5492,7 +5493,7 @@
       <c r="D122" s="13">
         <v>2330</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F122" s="3" t="s">
@@ -5533,7 +5534,7 @@
       <c r="D123" s="13">
         <v>6770</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F123" s="12" t="s">
@@ -5572,7 +5573,7 @@
       <c r="D124" s="13">
         <v>2303</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F124" s="12" t="s">
@@ -5611,7 +5612,7 @@
       <c r="D125" s="13">
         <v>2303</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F125" s="12" t="s">
@@ -5650,7 +5651,7 @@
       <c r="D126" s="13">
         <v>6770</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F126" s="12" t="s">
@@ -5689,7 +5690,7 @@
       <c r="D127" s="13">
         <v>2457</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F127" s="3" t="s">
@@ -5730,7 +5731,7 @@
       <c r="D128" s="13">
         <v>2457</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F128" s="12" t="s">
@@ -5769,7 +5770,7 @@
       <c r="D129" s="13">
         <v>2457</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F129" s="3" t="s">
@@ -5810,7 +5811,7 @@
       <c r="D130" s="14">
         <v>50</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F130" s="12" t="s">
@@ -5849,7 +5850,7 @@
       <c r="D131" s="14">
         <v>50</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F131" s="12" t="s">
@@ -5888,7 +5889,7 @@
       <c r="D132" s="13">
         <v>3707</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F132" s="12" t="s">
@@ -5927,7 +5928,7 @@
       <c r="D133" s="14">
         <v>50</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F133" s="12" t="s">
@@ -5966,7 +5967,7 @@
       <c r="D134" s="13">
         <v>2330</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F134" s="12" t="s">
@@ -6005,7 +6006,7 @@
       <c r="D135" s="14">
         <v>50</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F135" s="12" t="s">
@@ -6044,7 +6045,7 @@
       <c r="D136" s="13">
         <v>2457</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F136" s="3" t="s">
@@ -6085,7 +6086,7 @@
       <c r="D137" s="13">
         <v>3707</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F137" s="3" t="s">
@@ -6126,7 +6127,7 @@
       <c r="D138" s="13">
         <v>2330</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F138" s="12" t="s">
@@ -6165,7 +6166,7 @@
       <c r="D139" s="13">
         <v>2330</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F139" s="12" t="s">
@@ -6204,7 +6205,7 @@
       <c r="D140" s="13">
         <v>2330</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F140" s="12" t="s">
@@ -6243,7 +6244,7 @@
       <c r="D141" s="13">
         <v>2330</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F141" s="12" t="s">
@@ -6282,7 +6283,7 @@
       <c r="D142" s="14">
         <v>50</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F142" s="12" t="s">
@@ -6321,7 +6322,7 @@
       <c r="D143" s="14">
         <v>50</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F143" s="12" t="s">
@@ -6360,7 +6361,7 @@
       <c r="D144" s="14">
         <v>50</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F144" s="12" t="s">
@@ -6399,7 +6400,7 @@
       <c r="D145" s="13">
         <v>2303</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F145" s="3" t="s">
@@ -6440,7 +6441,7 @@
       <c r="D146" s="13">
         <v>2330</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F146" s="12" t="s">
@@ -6479,7 +6480,7 @@
       <c r="D147" s="14">
         <v>50</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F147" s="12" t="s">
@@ -6518,7 +6519,7 @@
       <c r="D148" s="13">
         <v>2330</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F148" s="3" t="s">
@@ -6559,7 +6560,7 @@
       <c r="D149" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F149" s="12" t="s">
@@ -6598,7 +6599,7 @@
       <c r="D150" s="13">
         <v>2330</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F150" s="12" t="s">
@@ -6637,7 +6638,7 @@
       <c r="D151" s="13">
         <v>2330</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F151" s="12" t="s">
@@ -6676,7 +6677,7 @@
       <c r="D152" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F152" s="12" t="s">
@@ -6715,7 +6716,7 @@
       <c r="D153" s="13">
         <v>2317</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F153" s="3" t="s">
@@ -6756,7 +6757,7 @@
       <c r="D154" s="14">
         <v>50</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F154" s="12" t="s">
@@ -6795,7 +6796,7 @@
       <c r="D155" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F155" s="3" t="s">
@@ -6836,7 +6837,7 @@
       <c r="D156" s="14">
         <v>50</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F156" s="12" t="s">
@@ -6875,7 +6876,7 @@
       <c r="D157" s="13">
         <v>2330</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F157" s="12" t="s">
@@ -6914,7 +6915,7 @@
       <c r="D158" s="13">
         <v>2330</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F158" s="12" t="s">
@@ -6953,7 +6954,7 @@
       <c r="D159" s="14">
         <v>50</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F159" s="12" t="s">
@@ -6992,7 +6993,7 @@
       <c r="D160" s="14">
         <v>50</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F160" s="12" t="s">
@@ -7031,7 +7032,7 @@
       <c r="D161" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F161" s="12" t="s">
@@ -7070,7 +7071,7 @@
       <c r="D162" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F162" s="3" t="s">
@@ -7111,7 +7112,7 @@
       <c r="D163" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F163" s="12" t="s">
@@ -7150,7 +7151,7 @@
       <c r="D164" s="13">
         <v>2330</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F164" s="12" t="s">
@@ -7189,7 +7190,7 @@
       <c r="D165" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F165" s="3" t="s">
@@ -7230,7 +7231,7 @@
       <c r="D166" s="13">
         <v>2330</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F166" s="12" t="s">
@@ -7269,7 +7270,7 @@
       <c r="D167" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F167" s="12" t="s">
@@ -7308,7 +7309,7 @@
       <c r="D168" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F168" s="12" t="s">
@@ -7347,7 +7348,7 @@
       <c r="D169" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F169" s="12" t="s">
@@ -7386,7 +7387,7 @@
       <c r="D170" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F170" s="12" t="s">
@@ -7425,7 +7426,7 @@
       <c r="D171" s="13">
         <v>2330</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F171" s="3" t="s">
@@ -7466,7 +7467,7 @@
       <c r="D172" s="13">
         <v>2330</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F172" s="3" t="s">
@@ -7507,7 +7508,7 @@
       <c r="D173" s="13">
         <v>2330</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E173" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F173" s="12" t="s">
@@ -7546,7 +7547,7 @@
       <c r="D174" s="13">
         <v>2330</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E174" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F174" s="12" t="s">
@@ -7585,7 +7586,7 @@
       <c r="D175" s="13">
         <v>2330</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E175" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F175" s="12" t="s">
@@ -7624,7 +7625,7 @@
       <c r="D176" s="13">
         <v>2330</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E176" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F176" s="12" t="s">
@@ -7663,7 +7664,7 @@
       <c r="D177" s="13">
         <v>2330</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E177" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F177" s="12" t="s">
@@ -7702,7 +7703,7 @@
       <c r="D178" s="13">
         <v>2330</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E178" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F178" s="12" t="s">
@@ -7741,7 +7742,7 @@
       <c r="D179" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F179" s="12" t="s">
@@ -7780,7 +7781,7 @@
       <c r="D180" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F180" s="12" t="s">
@@ -7819,7 +7820,7 @@
       <c r="D181" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F181" s="12" t="s">
@@ -7858,7 +7859,7 @@
       <c r="D182" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F182" s="12" t="s">
@@ -7897,7 +7898,7 @@
       <c r="D183" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E183" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F183" s="12" t="s">
@@ -7936,7 +7937,7 @@
       <c r="D184" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F184" s="12" t="s">
@@ -7975,7 +7976,7 @@
       <c r="D185" s="13">
         <v>6770</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E185" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F185" s="3" t="s">
@@ -8016,7 +8017,7 @@
       <c r="D186" s="13">
         <v>6770</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F186" s="3" t="s">
@@ -8057,7 +8058,7 @@
       <c r="D187" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F187" s="12" t="s">
@@ -8096,7 +8097,7 @@
       <c r="D188" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E188" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F188" s="12" t="s">
@@ -8135,7 +8136,7 @@
       <c r="D189" s="13">
         <v>2330</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F189" s="3" t="s">
@@ -8176,7 +8177,7 @@
       <c r="D190" s="13">
         <v>2330</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F190" s="12" t="s">
@@ -8215,7 +8216,7 @@
       <c r="D191" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F191" s="12" t="s">
@@ -8254,7 +8255,7 @@
       <c r="D192" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F192" s="12" t="s">
@@ -8293,7 +8294,7 @@
       <c r="D193" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F193" s="12" t="s">
@@ -8332,7 +8333,7 @@
       <c r="D194" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E194" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F194" s="12" t="s">
@@ -8371,7 +8372,7 @@
       <c r="D195" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F195" s="12" t="s">
@@ -8410,7 +8411,7 @@
       <c r="D196" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E196" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F196" s="12" t="s">
@@ -8449,7 +8450,7 @@
       <c r="D197" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E197" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F197" s="12" t="s">
@@ -8488,7 +8489,7 @@
       <c r="D198" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E198" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F198" s="12" t="s">
@@ -8527,7 +8528,7 @@
       <c r="D199" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F199" s="12" t="s">
@@ -8566,7 +8567,7 @@
       <c r="D200" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F200" s="12" t="s">
@@ -8605,7 +8606,7 @@
       <c r="D201" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E201" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F201" s="3" t="s">
@@ -8646,7 +8647,7 @@
       <c r="D202" s="13">
         <v>2330</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E202" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F202" s="12" t="s">
@@ -8685,7 +8686,7 @@
       <c r="D203" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E203" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F203" s="3" t="s">
@@ -8726,7 +8727,7 @@
       <c r="D204" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E204" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F204" s="3" t="s">
@@ -8767,7 +8768,7 @@
       <c r="D205" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="E205" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F205" s="3" t="s">
@@ -8847,7 +8848,7 @@
       <c r="D207" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E207" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F207" s="12" t="s">
@@ -8886,7 +8887,7 @@
       <c r="D208" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E208" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F208" s="12" t="s">
@@ -8925,7 +8926,7 @@
       <c r="D209" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E209" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F209" s="12" t="s">
@@ -8964,7 +8965,7 @@
       <c r="D210" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E210" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F210" s="12" t="s">
@@ -9003,7 +9004,7 @@
       <c r="D211" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E211" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F211" s="12" t="s">
@@ -9042,7 +9043,7 @@
       <c r="D212" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="E212" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F212" s="12" t="s">
@@ -9081,7 +9082,7 @@
       <c r="D213" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E213" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F213" s="12" t="s">
@@ -9120,7 +9121,7 @@
       <c r="D214" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E214" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F214" s="12" t="s">
@@ -9159,7 +9160,7 @@
       <c r="D215" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F215" s="12" t="s">
@@ -9198,7 +9199,7 @@
       <c r="D216" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E216" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F216" s="3" t="s">
@@ -9237,7 +9238,7 @@
       <c r="D217" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E217" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F217" s="3" t="s">
@@ -9276,7 +9277,7 @@
       <c r="D218" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="E218" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F218" s="12" t="s">
@@ -9315,7 +9316,7 @@
       <c r="D219" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="E219" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F219" s="12" t="s">
@@ -9354,7 +9355,7 @@
       <c r="D220" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E220" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F220" s="12" t="s">
@@ -9393,7 +9394,7 @@
       <c r="D221" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="E221" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F221" s="3" t="s">
@@ -9432,7 +9433,7 @@
       <c r="D222" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E222" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F222" s="12" t="s">
@@ -9471,7 +9472,7 @@
       <c r="D223" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E223" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F223" s="12" t="s">
@@ -9510,7 +9511,7 @@
       <c r="D224" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="E224" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F224" s="12" t="s">
@@ -9549,7 +9550,7 @@
       <c r="D225" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="E225" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F225" s="12" t="s">
@@ -9629,7 +9630,7 @@
       <c r="D227" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="E227" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F227" s="3" t="s">
@@ -9668,7 +9669,7 @@
       <c r="D228" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="E228" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F228" s="12" t="s">
@@ -9707,7 +9708,7 @@
       <c r="D229" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="E229" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F229" s="3" t="s">
@@ -9746,7 +9747,7 @@
       <c r="D230" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E230" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F230" s="12" t="s">
@@ -9785,7 +9786,7 @@
       <c r="D231" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E231" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F231" s="12" t="s">
@@ -9824,7 +9825,7 @@
       <c r="D232" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="E232" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F232" s="12" t="s">
@@ -9863,7 +9864,7 @@
       <c r="D233" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="E233" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F233" s="12" t="s">
@@ -9902,7 +9903,7 @@
       <c r="D234" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="E234" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F234" s="3" t="s">
@@ -9941,7 +9942,7 @@
       <c r="D235" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E235" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F235" s="12" t="s">
@@ -9980,7 +9981,7 @@
       <c r="D236" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="E236" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F236" s="3" t="s">
@@ -10019,7 +10020,7 @@
       <c r="D237" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="E237" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F237" s="12" t="s">
@@ -10058,7 +10059,7 @@
       <c r="D238" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E238" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F238" s="12" t="s">
@@ -10097,7 +10098,7 @@
       <c r="D239" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="E239" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F239" s="12" t="s">
@@ -10136,7 +10137,7 @@
       <c r="D240" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E240" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F240" s="12" t="s">
@@ -10175,7 +10176,7 @@
       <c r="D241" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="E241" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F241" s="12" t="s">
@@ -10255,7 +10256,7 @@
       <c r="D243" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="E243" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F243" s="12" t="s">

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BFB8B4-27F9-9546-AA7E-7B5094633B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF473E3-7C4B-A546-9A8A-A76767020055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易紀錄" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4228A649-98C2-8348-86A2-B679BA6F5397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCF7E63-B77B-8F48-9782-9DE809CB87F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易主表" sheetId="1" r:id="rId1"/>
     <sheet name="出資比例" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">交易主表!$A$1:$M$246</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">交易主表!$A$1:$M$245</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="322">
   <si>
     <t>交易日期</t>
   </si>
@@ -975,9 +975,6 @@
   </si>
   <si>
     <t>TX00240</t>
-  </si>
-  <si>
-    <t>TX00241</t>
   </si>
   <si>
     <t>TX00242</t>
@@ -1418,10 +1415,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView zoomScale="186" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A243" sqref="A243:XFD243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2736,7 +2733,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" s="2">
         <v>44260</v>
       </c>
@@ -6688,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" hidden="1">
       <c r="A139" s="2">
         <v>44650</v>
       </c>
@@ -6726,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" hidden="1">
       <c r="A140" s="2">
         <v>44652</v>
       </c>
@@ -6764,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" hidden="1">
       <c r="A141" s="2">
         <v>44658</v>
       </c>
@@ -6954,7 +6951,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" hidden="1">
       <c r="A146" s="2">
         <v>44848</v>
       </c>
@@ -6992,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" hidden="1">
       <c r="A147" s="2">
         <v>44848</v>
       </c>
@@ -7030,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" hidden="1">
       <c r="A148" s="2">
         <v>44883</v>
       </c>
@@ -7106,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" hidden="1">
       <c r="A150" s="2">
         <v>44900</v>
       </c>
@@ -7638,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" hidden="1">
       <c r="A164" s="2">
         <v>45344</v>
       </c>
@@ -8208,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" hidden="1">
       <c r="A179" s="2">
         <v>45475</v>
       </c>
@@ -8284,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" hidden="1">
       <c r="A181" s="2">
         <v>45475</v>
       </c>
@@ -8322,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" hidden="1">
       <c r="A182" s="2">
         <v>45475</v>
       </c>
@@ -8512,7 +8509,7 @@
         <v>569.1</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" hidden="1">
       <c r="A187" s="2">
         <v>45476</v>
       </c>
@@ -8550,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" hidden="1">
       <c r="A188" s="2">
         <v>45476</v>
       </c>
@@ -8664,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" hidden="1">
       <c r="A191" s="2">
         <v>45489</v>
       </c>
@@ -8702,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" hidden="1">
       <c r="A192" s="2">
         <v>45489</v>
       </c>
@@ -8778,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" hidden="1">
       <c r="A194" s="2">
         <v>45490</v>
       </c>
@@ -8816,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" hidden="1">
       <c r="A195" s="2">
         <v>45490</v>
       </c>
@@ -8854,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" hidden="1">
       <c r="A196" s="2">
         <v>45490</v>
       </c>
@@ -8892,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" hidden="1">
       <c r="A197" s="2">
         <v>45490</v>
       </c>
@@ -8930,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" hidden="1">
       <c r="A198" s="2">
         <v>45492</v>
       </c>
@@ -8968,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" hidden="1">
       <c r="A199" s="2">
         <v>45492</v>
       </c>
@@ -9006,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" hidden="1">
       <c r="A200" s="2">
         <v>45492</v>
       </c>
@@ -9272,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" hidden="1">
       <c r="A207" s="2">
         <v>45510</v>
       </c>
@@ -9310,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" hidden="1">
       <c r="A208" s="2">
         <v>45510</v>
       </c>
@@ -9348,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" hidden="1">
       <c r="A209" s="2">
         <v>45511</v>
       </c>
@@ -9386,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" hidden="1">
       <c r="A210" s="2">
         <v>45511</v>
       </c>
@@ -9424,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" hidden="1">
       <c r="A211" s="2">
         <v>45511</v>
       </c>
@@ -9462,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" hidden="1">
       <c r="A212" s="2">
         <v>45533</v>
       </c>
@@ -9500,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" hidden="1">
       <c r="A213" s="2">
         <v>45533</v>
       </c>
@@ -9538,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" hidden="1">
       <c r="A214" s="2">
         <v>45533</v>
       </c>
@@ -9576,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" hidden="1">
       <c r="A215" s="2">
         <v>45533</v>
       </c>
@@ -9614,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" hidden="1">
       <c r="A216" s="2">
         <v>45546</v>
       </c>
@@ -9652,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" hidden="1">
       <c r="A217" s="2">
         <v>45546</v>
       </c>
@@ -9690,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" hidden="1">
       <c r="A218" s="2">
         <v>45559</v>
       </c>
@@ -9728,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" hidden="1">
       <c r="A219" s="2">
         <v>45581</v>
       </c>
@@ -9956,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" hidden="1">
       <c r="A225" s="2">
         <v>45614</v>
       </c>
@@ -10108,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" hidden="1">
       <c r="A229" s="2">
         <v>45649</v>
       </c>
@@ -10260,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" hidden="1">
       <c r="A233" s="2">
         <v>45691</v>
       </c>
@@ -10298,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" hidden="1">
       <c r="A234" s="2">
         <v>45691</v>
       </c>
@@ -10336,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" hidden="1">
       <c r="A235" s="2">
         <v>45691</v>
       </c>
@@ -10374,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" hidden="1">
       <c r="A236" s="2">
         <v>45719</v>
       </c>
@@ -10640,39 +10637,39 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" hidden="1">
       <c r="A243" s="2">
-        <v>45728</v>
+        <v>45747</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H243" s="3">
-        <v>247.34989999999999</v>
+        <v>910</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J243" s="3">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="K243" s="6">
-        <v>0</v>
+        <v>648.37499999999989</v>
       </c>
       <c r="L243" s="6">
         <v>0</v>
@@ -10680,7 +10677,7 @@
     </row>
     <row r="244" spans="1:12" hidden="1">
       <c r="A244" s="2">
-        <v>45747</v>
+        <v>45755</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>318</v>
@@ -10701,7 +10698,7 @@
         <v>71</v>
       </c>
       <c r="H244" s="3">
-        <v>910</v>
+        <v>810</v>
       </c>
       <c r="I244" s="3" t="s">
         <v>74</v>
@@ -10710,7 +10707,7 @@
         <v>1000</v>
       </c>
       <c r="K244" s="6">
-        <v>648.37499999999989</v>
+        <v>577.12499999999989</v>
       </c>
       <c r="L244" s="6">
         <v>0</v>
@@ -10718,7 +10715,7 @@
     </row>
     <row r="245" spans="1:12" hidden="1">
       <c r="A245" s="2">
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>319</v>
@@ -10736,64 +10733,31 @@
         <v>69</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H245" s="3">
-        <v>810</v>
+        <v>880</v>
       </c>
       <c r="I245" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J245" s="3">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
       <c r="K245" s="6">
-        <v>577.12499999999989</v>
+        <v>-626.99999999999989</v>
       </c>
       <c r="L245" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" hidden="1">
-      <c r="A246" s="2">
-        <v>45758</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H246" s="3">
-        <v>880</v>
-      </c>
-      <c r="I246" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J246" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K246" s="6">
-        <v>-626.99999999999989</v>
-      </c>
-      <c r="L246" s="6">
         <v>2640</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M246" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:M245" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="TSLA"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="8">
       <filters>
         <filter val="Joint"/>
@@ -10807,10 +10771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C308"/>
+  <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="A317" sqref="A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -10823,10 +10787,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14159,50 +14123,28 @@
         <v>74</v>
       </c>
       <c r="C304" s="1">
-        <v>0.65200000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C305" s="1">
-        <v>0.34799999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C306" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C307" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C308" s="1">
         <v>1</v>
       </c>
     </row>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCF7E63-B77B-8F48-9782-9DE809CB87F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A38E055-B6CC-6844-B021-108B5040965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易主表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="323">
   <si>
     <t>交易日期</t>
   </si>
@@ -990,6 +990,10 @@
   </si>
   <si>
     <t>出資比例</t>
+  </si>
+  <si>
+    <t>第一筆太早了不可考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -999,7 +1003,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,6 +1038,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF506A86"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1096,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1110,6 +1122,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1414,11 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M245"/>
   <sheetViews>
-    <sheetView zoomScale="186" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243:XFD243"/>
+    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1479,9 +1492,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
-      <c r="A2" s="2">
-        <v>43774</v>
+    <row r="2" spans="1:13">
+      <c r="A2" s="7">
+        <v>43770</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>76</v>
@@ -1516,8 +1529,11 @@
       <c r="L2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1">
+      <c r="M2" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>43774</v>
       </c>
@@ -1555,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>43905</v>
       </c>
@@ -1593,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>43994</v>
       </c>
@@ -1631,7 +1647,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>44020</v>
       </c>
@@ -1669,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>44040</v>
       </c>
@@ -1707,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>44056</v>
       </c>
@@ -1745,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -1783,7 +1799,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>44075</v>
       </c>
@@ -1821,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>44090</v>
       </c>
@@ -1859,7 +1875,7 @@
         <v>1378.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>44091</v>
       </c>
@@ -1897,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>44165</v>
       </c>
@@ -1935,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>44181</v>
       </c>
@@ -1973,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>44183</v>
       </c>
@@ -2011,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>44188</v>
       </c>
@@ -2049,7 +2065,7 @@
         <v>1060.8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1">
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>44188</v>
       </c>
@@ -2087,7 +2103,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>44196</v>
       </c>
@@ -2125,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>44201</v>
       </c>
@@ -2163,7 +2179,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>44202</v>
       </c>
@@ -2201,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1">
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>44204</v>
       </c>
@@ -2239,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>44208</v>
       </c>
@@ -2277,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>44209</v>
       </c>
@@ -2315,7 +2331,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>44209</v>
       </c>
@@ -2353,7 +2369,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>44209</v>
       </c>
@@ -2391,7 +2407,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>44210</v>
       </c>
@@ -2429,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>44211</v>
       </c>
@@ -2467,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1">
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>44215</v>
       </c>
@@ -2505,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>44215</v>
       </c>
@@ -2543,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1">
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>44217</v>
       </c>
@@ -2581,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1">
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>44224</v>
       </c>
@@ -2619,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1">
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>44224</v>
       </c>
@@ -2657,7 +2673,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1">
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>44224</v>
       </c>
@@ -2695,7 +2711,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1">
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>44260</v>
       </c>
@@ -2733,7 +2749,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1">
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>44260</v>
       </c>
@@ -2771,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1">
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>44260</v>
       </c>
@@ -2809,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1">
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>44260</v>
       </c>
@@ -2847,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1">
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>44286</v>
       </c>
@@ -2885,7 +2901,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1">
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>44286</v>
       </c>
@@ -2923,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1">
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>44286</v>
       </c>
@@ -2961,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1">
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>44292</v>
       </c>
@@ -2999,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1">
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>44292</v>
       </c>
@@ -3037,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1">
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>44293</v>
       </c>
@@ -3075,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1">
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>44293</v>
       </c>
@@ -3113,7 +3129,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>44294</v>
       </c>
@@ -3151,7 +3167,7 @@
         <v>820.5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1">
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>44294</v>
       </c>
@@ -3189,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1">
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>44294</v>
       </c>
@@ -3227,7 +3243,7 @@
         <v>244.5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>44295</v>
       </c>
@@ -3265,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1">
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>44295</v>
       </c>
@@ -3303,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1">
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>44295</v>
       </c>
@@ -3341,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1">
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>44298</v>
       </c>
@@ -3379,7 +3395,7 @@
         <v>808.5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1">
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>44299</v>
       </c>
@@ -3417,7 +3433,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1">
+    <row r="53" spans="1:12">
       <c r="A53" s="2">
         <v>44299</v>
       </c>
@@ -3455,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1">
+    <row r="54" spans="1:12">
       <c r="A54" s="2">
         <v>44299</v>
       </c>
@@ -3493,7 +3509,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1">
+    <row r="55" spans="1:12">
       <c r="A55" s="2">
         <v>44299</v>
       </c>
@@ -3531,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1">
+    <row r="56" spans="1:12">
       <c r="A56" s="2">
         <v>44299</v>
       </c>
@@ -3569,7 +3585,7 @@
         <v>439.5</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1">
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>44300</v>
       </c>
@@ -3607,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1">
+    <row r="58" spans="1:12">
       <c r="A58" s="2">
         <v>44300</v>
       </c>
@@ -3645,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1">
+    <row r="59" spans="1:12">
       <c r="A59" s="2">
         <v>44300</v>
       </c>
@@ -3683,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1">
+    <row r="60" spans="1:12">
       <c r="A60" s="2">
         <v>44301</v>
       </c>
@@ -3721,7 +3737,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1">
+    <row r="61" spans="1:12">
       <c r="A61" s="2">
         <v>44302</v>
       </c>
@@ -3759,7 +3775,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1">
+    <row r="62" spans="1:12">
       <c r="A62" s="2">
         <v>44306</v>
       </c>
@@ -3797,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1">
+    <row r="63" spans="1:12">
       <c r="A63" s="2">
         <v>44306</v>
       </c>
@@ -3835,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1">
+    <row r="64" spans="1:12">
       <c r="A64" s="2">
         <v>44327</v>
       </c>
@@ -3873,7 +3889,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1">
+    <row r="65" spans="1:12">
       <c r="A65" s="2">
         <v>44327</v>
       </c>
@@ -3911,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1">
+    <row r="66" spans="1:12">
       <c r="A66" s="2">
         <v>44327</v>
       </c>
@@ -3949,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1">
+    <row r="67" spans="1:12">
       <c r="A67" s="2">
         <v>44327</v>
       </c>
@@ -3987,7 +4003,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1">
+    <row r="68" spans="1:12">
       <c r="A68" s="2">
         <v>44327</v>
       </c>
@@ -4025,7 +4041,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1">
+    <row r="69" spans="1:12">
       <c r="A69" s="2">
         <v>44327</v>
       </c>
@@ -4063,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1">
+    <row r="70" spans="1:12">
       <c r="A70" s="2">
         <v>44327</v>
       </c>
@@ -4101,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1">
+    <row r="71" spans="1:12">
       <c r="A71" s="2">
         <v>44327</v>
       </c>
@@ -4139,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1">
+    <row r="72" spans="1:12">
       <c r="A72" s="2">
         <v>44329</v>
       </c>
@@ -4177,7 +4193,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1">
+    <row r="73" spans="1:12">
       <c r="A73" s="2">
         <v>44329</v>
       </c>
@@ -4215,7 +4231,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1">
+    <row r="74" spans="1:12">
       <c r="A74" s="2">
         <v>44329</v>
       </c>
@@ -4253,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1">
+    <row r="75" spans="1:12">
       <c r="A75" s="2">
         <v>44329</v>
       </c>
@@ -4291,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1">
+    <row r="76" spans="1:12">
       <c r="A76" s="2">
         <v>44329</v>
       </c>
@@ -4329,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1">
+    <row r="77" spans="1:12">
       <c r="A77" s="2">
         <v>44329</v>
       </c>
@@ -4367,7 +4383,7 @@
         <v>349.5</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1">
+    <row r="78" spans="1:12">
       <c r="A78" s="2">
         <v>44329</v>
       </c>
@@ -4405,7 +4421,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1">
+    <row r="79" spans="1:12">
       <c r="A79" s="2">
         <v>44330</v>
       </c>
@@ -4443,7 +4459,7 @@
         <v>209.1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1">
+    <row r="80" spans="1:12">
       <c r="A80" s="2">
         <v>44330</v>
       </c>
@@ -4481,7 +4497,7 @@
         <v>457.2</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1">
+    <row r="81" spans="1:12">
       <c r="A81" s="2">
         <v>44333</v>
       </c>
@@ -4519,7 +4535,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1">
+    <row r="82" spans="1:12">
       <c r="A82" s="2">
         <v>44334</v>
       </c>
@@ -4557,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1">
+    <row r="83" spans="1:12">
       <c r="A83" s="2">
         <v>44334</v>
       </c>
@@ -4595,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1">
+    <row r="84" spans="1:12">
       <c r="A84" s="2">
         <v>44337</v>
       </c>
@@ -4633,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1">
+    <row r="85" spans="1:12">
       <c r="A85" s="2">
         <v>44337</v>
       </c>
@@ -4671,7 +4687,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1">
+    <row r="86" spans="1:12">
       <c r="A86" s="2">
         <v>44399</v>
       </c>
@@ -4709,7 +4725,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1">
+    <row r="87" spans="1:12">
       <c r="A87" s="2">
         <v>44399</v>
       </c>
@@ -4747,7 +4763,7 @@
         <v>589.5</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1">
+    <row r="88" spans="1:12">
       <c r="A88" s="2">
         <v>44406</v>
       </c>
@@ -4785,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1">
+    <row r="89" spans="1:12">
       <c r="A89" s="2">
         <v>44407</v>
       </c>
@@ -4823,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1">
+    <row r="90" spans="1:12">
       <c r="A90" s="2">
         <v>44407</v>
       </c>
@@ -4861,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1">
+    <row r="91" spans="1:12">
       <c r="A91" s="2">
         <v>44407</v>
       </c>
@@ -4899,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1">
+    <row r="92" spans="1:12">
       <c r="A92" s="2">
         <v>44412</v>
       </c>
@@ -4937,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1">
+    <row r="93" spans="1:12">
       <c r="A93" s="2">
         <v>44412</v>
       </c>
@@ -4975,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1">
+    <row r="94" spans="1:12">
       <c r="A94" s="2">
         <v>44412</v>
       </c>
@@ -5013,7 +5029,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1">
+    <row r="95" spans="1:12">
       <c r="A95" s="2">
         <v>44412</v>
       </c>
@@ -5051,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1">
+    <row r="96" spans="1:12">
       <c r="A96" s="2">
         <v>44412</v>
       </c>
@@ -5089,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1">
+    <row r="97" spans="1:12">
       <c r="A97" s="2">
         <v>44412</v>
       </c>
@@ -5127,7 +5143,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1">
+    <row r="98" spans="1:12">
       <c r="A98" s="2">
         <v>44412</v>
       </c>
@@ -5165,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1">
+    <row r="99" spans="1:12">
       <c r="A99" s="2">
         <v>44412</v>
       </c>
@@ -5203,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1">
+    <row r="100" spans="1:12">
       <c r="A100" s="2">
         <v>44412</v>
       </c>
@@ -5241,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1">
+    <row r="101" spans="1:12">
       <c r="A101" s="2">
         <v>44412</v>
       </c>
@@ -5279,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1">
+    <row r="102" spans="1:12">
       <c r="A102" s="2">
         <v>44412</v>
       </c>
@@ -5317,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1">
+    <row r="103" spans="1:12">
       <c r="A103" s="2">
         <v>44412</v>
       </c>
@@ -5355,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1">
+    <row r="104" spans="1:12">
       <c r="A104" s="2">
         <v>44412</v>
       </c>
@@ -5393,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1">
+    <row r="105" spans="1:12">
       <c r="A105" s="2">
         <v>44412</v>
       </c>
@@ -5431,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1">
+    <row r="106" spans="1:12">
       <c r="A106" s="2">
         <v>44454</v>
       </c>
@@ -5469,7 +5485,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1">
+    <row r="107" spans="1:12">
       <c r="A107" s="2">
         <v>44454</v>
       </c>
@@ -5507,7 +5523,7 @@
         <v>255.9</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1">
+    <row r="108" spans="1:12">
       <c r="A108" s="2">
         <v>44462</v>
       </c>
@@ -5545,7 +5561,7 @@
         <v>352.5</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1">
+    <row r="109" spans="1:12">
       <c r="A109" s="2">
         <v>44462</v>
       </c>
@@ -5583,7 +5599,7 @@
         <v>355.5</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1">
+    <row r="110" spans="1:12">
       <c r="A110" s="2">
         <v>44462</v>
       </c>
@@ -5621,7 +5637,7 @@
         <v>1075.5</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1">
+    <row r="111" spans="1:12">
       <c r="A111" s="2">
         <v>44462</v>
       </c>
@@ -5659,7 +5675,7 @@
         <v>133.35</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1">
+    <row r="112" spans="1:12">
       <c r="A112" s="2">
         <v>44462</v>
       </c>
@@ -5697,7 +5713,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1">
+    <row r="113" spans="1:12">
       <c r="A113" s="2">
         <v>44462</v>
       </c>
@@ -5735,7 +5751,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1">
+    <row r="114" spans="1:12">
       <c r="A114" s="2">
         <v>44466</v>
       </c>
@@ -5773,7 +5789,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1">
+    <row r="115" spans="1:12">
       <c r="A115" s="2">
         <v>44466</v>
       </c>
@@ -5811,7 +5827,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1">
+    <row r="116" spans="1:12">
       <c r="A116" s="2">
         <v>44473</v>
       </c>
@@ -5849,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1">
+    <row r="117" spans="1:12">
       <c r="A117" s="2">
         <v>44481</v>
       </c>
@@ -5887,7 +5903,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1">
+    <row r="118" spans="1:12">
       <c r="A118" s="2">
         <v>44484</v>
       </c>
@@ -5925,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1">
+    <row r="119" spans="1:12">
       <c r="A119" s="2">
         <v>44490</v>
       </c>
@@ -5963,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1">
+    <row r="120" spans="1:12">
       <c r="A120" s="2">
         <v>44495</v>
       </c>
@@ -6001,7 +6017,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1">
+    <row r="121" spans="1:12">
       <c r="A121" s="2">
         <v>44529</v>
       </c>
@@ -6039,7 +6055,7 @@
         <v>560.70000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1">
+    <row r="122" spans="1:12">
       <c r="A122" s="2">
         <v>44529</v>
       </c>
@@ -6077,7 +6093,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1">
+    <row r="123" spans="1:12">
       <c r="A123" s="2">
         <v>44530</v>
       </c>
@@ -6115,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1">
+    <row r="124" spans="1:12">
       <c r="A124" s="2">
         <v>44530</v>
       </c>
@@ -6153,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1">
+    <row r="125" spans="1:12">
       <c r="A125" s="2">
         <v>44532</v>
       </c>
@@ -6191,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1">
+    <row r="126" spans="1:12">
       <c r="A126" s="2">
         <v>44533</v>
       </c>
@@ -6229,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1">
+    <row r="127" spans="1:12">
       <c r="A127" s="2">
         <v>44553</v>
       </c>
@@ -6267,7 +6283,7 @@
         <v>150.9</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1">
+    <row r="128" spans="1:12">
       <c r="A128" s="2">
         <v>44554</v>
       </c>
@@ -6305,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1">
+    <row r="129" spans="1:12">
       <c r="A129" s="2">
         <v>44557</v>
       </c>
@@ -6343,7 +6359,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1">
+    <row r="130" spans="1:12">
       <c r="A130" s="2">
         <v>44566</v>
       </c>
@@ -6381,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1">
+    <row r="131" spans="1:12">
       <c r="A131" s="2">
         <v>44567</v>
       </c>
@@ -6419,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1">
+    <row r="132" spans="1:12">
       <c r="A132" s="2">
         <v>44568</v>
       </c>
@@ -6457,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1">
+    <row r="133" spans="1:12">
       <c r="A133" s="2">
         <v>44586</v>
       </c>
@@ -6495,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1">
+    <row r="134" spans="1:12">
       <c r="A134" s="2">
         <v>44587</v>
       </c>
@@ -6533,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1">
+    <row r="135" spans="1:12">
       <c r="A135" s="2">
         <v>44587</v>
       </c>
@@ -6571,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1">
+    <row r="136" spans="1:12">
       <c r="A136" s="2">
         <v>44624</v>
       </c>
@@ -6609,7 +6625,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1">
+    <row r="137" spans="1:12">
       <c r="A137" s="2">
         <v>44638</v>
       </c>
@@ -6647,7 +6663,7 @@
         <v>388.5</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1">
+    <row r="138" spans="1:12">
       <c r="A138" s="2">
         <v>44644</v>
       </c>
@@ -6685,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1">
+    <row r="139" spans="1:12">
       <c r="A139" s="2">
         <v>44650</v>
       </c>
@@ -6723,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1">
+    <row r="140" spans="1:12">
       <c r="A140" s="2">
         <v>44652</v>
       </c>
@@ -6761,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1">
+    <row r="141" spans="1:12">
       <c r="A141" s="2">
         <v>44658</v>
       </c>
@@ -6799,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1">
+    <row r="142" spans="1:12">
       <c r="A142" s="2">
         <v>44753</v>
       </c>
@@ -6837,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1">
+    <row r="143" spans="1:12">
       <c r="A143" s="2">
         <v>44753</v>
       </c>
@@ -6875,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1">
+    <row r="144" spans="1:12">
       <c r="A144" s="2">
         <v>44812</v>
       </c>
@@ -6913,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1">
+    <row r="145" spans="1:12">
       <c r="A145" s="2">
         <v>44838</v>
       </c>
@@ -6951,7 +6967,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1">
+    <row r="146" spans="1:12">
       <c r="A146" s="2">
         <v>44848</v>
       </c>
@@ -6989,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1">
+    <row r="147" spans="1:12">
       <c r="A147" s="2">
         <v>44848</v>
       </c>
@@ -7027,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1">
+    <row r="148" spans="1:12">
       <c r="A148" s="2">
         <v>44883</v>
       </c>
@@ -7065,7 +7081,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1">
+    <row r="149" spans="1:12">
       <c r="A149" s="2">
         <v>44897</v>
       </c>
@@ -7103,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1">
+    <row r="150" spans="1:12">
       <c r="A150" s="2">
         <v>44900</v>
       </c>
@@ -7141,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1">
+    <row r="151" spans="1:12">
       <c r="A151" s="2">
         <v>44902</v>
       </c>
@@ -7179,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1">
+    <row r="152" spans="1:12">
       <c r="A152" s="2">
         <v>44902</v>
       </c>
@@ -7217,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1">
+    <row r="153" spans="1:12">
       <c r="A153" s="2">
         <v>45009</v>
       </c>
@@ -7255,7 +7271,7 @@
         <v>1567.5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1">
+    <row r="154" spans="1:12">
       <c r="A154" s="2">
         <v>45117</v>
       </c>
@@ -7293,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1">
+    <row r="155" spans="1:12">
       <c r="A155" s="2">
         <v>45120</v>
       </c>
@@ -7331,7 +7347,7 @@
         <v>1196.6400000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1">
+    <row r="156" spans="1:12">
       <c r="A156" s="2">
         <v>45139</v>
       </c>
@@ -7369,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1">
+    <row r="157" spans="1:12">
       <c r="A157" s="2">
         <v>45148</v>
       </c>
@@ -7407,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1">
+    <row r="158" spans="1:12">
       <c r="A158" s="2">
         <v>45154</v>
       </c>
@@ -7445,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1">
+    <row r="159" spans="1:12">
       <c r="A159" s="2">
         <v>45160</v>
       </c>
@@ -7483,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1">
+    <row r="160" spans="1:12">
       <c r="A160" s="2">
         <v>45232</v>
       </c>
@@ -7521,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1">
+    <row r="161" spans="1:12">
       <c r="A161" s="2">
         <v>45263</v>
       </c>
@@ -7559,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1">
+    <row r="162" spans="1:12">
       <c r="A162" s="2">
         <v>45294</v>
       </c>
@@ -7597,7 +7613,7 @@
         <v>628.80000000000007</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1">
+    <row r="163" spans="1:12">
       <c r="A163" s="2">
         <v>45310</v>
       </c>
@@ -7635,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1">
+    <row r="164" spans="1:12">
       <c r="A164" s="2">
         <v>45344</v>
       </c>
@@ -7673,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1">
+    <row r="165" spans="1:12">
       <c r="A165" s="2">
         <v>45362</v>
       </c>
@@ -7711,7 +7727,7 @@
         <v>1591.2</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1">
+    <row r="166" spans="1:12">
       <c r="A166" s="2">
         <v>45363</v>
       </c>
@@ -7749,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1">
+    <row r="167" spans="1:12">
       <c r="A167" s="2">
         <v>45389</v>
       </c>
@@ -7787,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1">
+    <row r="168" spans="1:12">
       <c r="A168" s="2">
         <v>45389</v>
       </c>
@@ -7825,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1">
+    <row r="169" spans="1:12">
       <c r="A169" s="2">
         <v>45389</v>
       </c>
@@ -7863,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1">
+    <row r="170" spans="1:12">
       <c r="A170" s="2">
         <v>45389</v>
       </c>
@@ -7901,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1">
+    <row r="171" spans="1:12">
       <c r="A171" s="2">
         <v>45397</v>
       </c>
@@ -7939,7 +7955,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1">
+    <row r="172" spans="1:12">
       <c r="A172" s="2">
         <v>45397</v>
       </c>
@@ -7977,7 +7993,7 @@
         <v>14490</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1">
+    <row r="173" spans="1:12">
       <c r="A173" s="2">
         <v>45401</v>
       </c>
@@ -8015,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1">
+    <row r="174" spans="1:12">
       <c r="A174" s="2">
         <v>45405</v>
       </c>
@@ -8053,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1">
+    <row r="175" spans="1:12">
       <c r="A175" s="2">
         <v>45411</v>
       </c>
@@ -8091,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1">
+    <row r="176" spans="1:12">
       <c r="A176" s="2">
         <v>45412</v>
       </c>
@@ -8129,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1">
+    <row r="177" spans="1:12">
       <c r="A177" s="2">
         <v>45414</v>
       </c>
@@ -8167,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1">
+    <row r="178" spans="1:12">
       <c r="A178" s="2">
         <v>45418</v>
       </c>
@@ -8205,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1">
+    <row r="179" spans="1:12">
       <c r="A179" s="2">
         <v>45475</v>
       </c>
@@ -8281,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1">
+    <row r="181" spans="1:12">
       <c r="A181" s="2">
         <v>45475</v>
       </c>
@@ -8319,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1">
+    <row r="182" spans="1:12">
       <c r="A182" s="2">
         <v>45475</v>
       </c>
@@ -8433,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1">
+    <row r="185" spans="1:12">
       <c r="A185" s="2">
         <v>45476</v>
       </c>
@@ -8471,7 +8487,7 @@
         <v>406.5</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1">
+    <row r="186" spans="1:12">
       <c r="A186" s="2">
         <v>45476</v>
       </c>
@@ -8509,7 +8525,7 @@
         <v>569.1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1">
+    <row r="187" spans="1:12">
       <c r="A187" s="2">
         <v>45476</v>
       </c>
@@ -8547,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1">
+    <row r="188" spans="1:12">
       <c r="A188" s="2">
         <v>45476</v>
       </c>
@@ -8585,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1">
+    <row r="189" spans="1:12">
       <c r="A189" s="2">
         <v>45488</v>
       </c>
@@ -8623,7 +8639,7 @@
         <v>24720</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1">
+    <row r="190" spans="1:12">
       <c r="A190" s="2">
         <v>45489</v>
       </c>
@@ -8661,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1">
+    <row r="191" spans="1:12">
       <c r="A191" s="2">
         <v>45489</v>
       </c>
@@ -8699,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1">
+    <row r="192" spans="1:12">
       <c r="A192" s="2">
         <v>45489</v>
       </c>
@@ -8775,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1">
+    <row r="194" spans="1:12">
       <c r="A194" s="2">
         <v>45490</v>
       </c>
@@ -8813,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1">
+    <row r="195" spans="1:12">
       <c r="A195" s="2">
         <v>45490</v>
       </c>
@@ -8851,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1">
+    <row r="196" spans="1:12">
       <c r="A196" s="2">
         <v>45490</v>
       </c>
@@ -8889,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1">
+    <row r="197" spans="1:12">
       <c r="A197" s="2">
         <v>45490</v>
       </c>
@@ -8927,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1">
+    <row r="198" spans="1:12">
       <c r="A198" s="2">
         <v>45492</v>
       </c>
@@ -8965,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1">
+    <row r="199" spans="1:12">
       <c r="A199" s="2">
         <v>45492</v>
       </c>
@@ -9003,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1">
+    <row r="200" spans="1:12">
       <c r="A200" s="2">
         <v>45492</v>
       </c>
@@ -9041,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1">
+    <row r="201" spans="1:12">
       <c r="A201" s="2">
         <v>45506</v>
       </c>
@@ -9079,7 +9095,7 @@
         <v>534.29999999999995</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1">
+    <row r="202" spans="1:12">
       <c r="A202" s="2">
         <v>45506</v>
       </c>
@@ -9117,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1">
+    <row r="203" spans="1:12">
       <c r="A203" s="2">
         <v>45506</v>
       </c>
@@ -9155,7 +9171,7 @@
         <v>488.55</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1">
+    <row r="204" spans="1:12">
       <c r="A204" s="2">
         <v>45506</v>
       </c>
@@ -9193,7 +9209,7 @@
         <v>543.75</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1">
+    <row r="205" spans="1:12">
       <c r="A205" s="2">
         <v>45506</v>
       </c>
@@ -9231,7 +9247,7 @@
         <v>137.85</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1">
+    <row r="206" spans="1:12">
       <c r="A206" s="2">
         <v>45509</v>
       </c>
@@ -9269,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1">
+    <row r="207" spans="1:12">
       <c r="A207" s="2">
         <v>45510</v>
       </c>
@@ -9307,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1">
+    <row r="208" spans="1:12">
       <c r="A208" s="2">
         <v>45510</v>
       </c>
@@ -9345,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1">
+    <row r="209" spans="1:12">
       <c r="A209" s="2">
         <v>45511</v>
       </c>
@@ -9383,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1">
+    <row r="210" spans="1:12">
       <c r="A210" s="2">
         <v>45511</v>
       </c>
@@ -9421,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1">
+    <row r="211" spans="1:12">
       <c r="A211" s="2">
         <v>45511</v>
       </c>
@@ -9459,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1">
+    <row r="212" spans="1:12">
       <c r="A212" s="2">
         <v>45533</v>
       </c>
@@ -9497,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1">
+    <row r="213" spans="1:12">
       <c r="A213" s="2">
         <v>45533</v>
       </c>
@@ -9535,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1">
+    <row r="214" spans="1:12">
       <c r="A214" s="2">
         <v>45533</v>
       </c>
@@ -9573,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1">
+    <row r="215" spans="1:12">
       <c r="A215" s="2">
         <v>45533</v>
       </c>
@@ -9611,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1">
+    <row r="216" spans="1:12">
       <c r="A216" s="2">
         <v>45546</v>
       </c>
@@ -9649,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1">
+    <row r="217" spans="1:12">
       <c r="A217" s="2">
         <v>45546</v>
       </c>
@@ -9687,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1">
+    <row r="218" spans="1:12">
       <c r="A218" s="2">
         <v>45559</v>
       </c>
@@ -9725,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1">
+    <row r="219" spans="1:12">
       <c r="A219" s="2">
         <v>45581</v>
       </c>
@@ -9953,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1">
+    <row r="225" spans="1:12">
       <c r="A225" s="2">
         <v>45614</v>
       </c>
@@ -9991,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1">
+    <row r="226" spans="1:12">
       <c r="A226" s="2">
         <v>45645</v>
       </c>
@@ -10105,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1">
+    <row r="229" spans="1:12">
       <c r="A229" s="2">
         <v>45649</v>
       </c>
@@ -10257,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1">
+    <row r="233" spans="1:12">
       <c r="A233" s="2">
         <v>45691</v>
       </c>
@@ -10295,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1">
+    <row r="234" spans="1:12">
       <c r="A234" s="2">
         <v>45691</v>
       </c>
@@ -10333,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1">
+    <row r="235" spans="1:12">
       <c r="A235" s="2">
         <v>45691</v>
       </c>
@@ -10371,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1">
+    <row r="236" spans="1:12">
       <c r="A236" s="2">
         <v>45719</v>
       </c>
@@ -10599,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1">
+    <row r="242" spans="1:12">
       <c r="A242" s="2">
         <v>45727</v>
       </c>
@@ -10637,7 +10653,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1">
+    <row r="243" spans="1:12">
       <c r="A243" s="2">
         <v>45747</v>
       </c>
@@ -10675,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1">
+    <row r="244" spans="1:12">
       <c r="A244" s="2">
         <v>45755</v>
       </c>
@@ -10713,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1">
+    <row r="245" spans="1:12">
       <c r="A245" s="2">
         <v>45758</v>
       </c>
@@ -10752,18 +10768,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M245" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="TSLA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Joint"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M245" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10773,7 +10778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+    <sheetView topLeftCell="A279" workbookViewId="0">
       <selection activeCell="A317" sqref="A317"/>
     </sheetView>
   </sheetViews>
